--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7002,28 +7002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2604.878175787649</v>
+        <v>2781.66847421036</v>
       </c>
       <c r="AB2" t="n">
-        <v>3564.109239227397</v>
+        <v>3806.001524966873</v>
       </c>
       <c r="AC2" t="n">
-        <v>3223.955655694135</v>
+        <v>3442.762081180581</v>
       </c>
       <c r="AD2" t="n">
-        <v>2604878.175787649</v>
+        <v>2781668.47421036</v>
       </c>
       <c r="AE2" t="n">
-        <v>3564109.239227397</v>
+        <v>3806001.524966873</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.244962218879894e-07</v>
+        <v>1.055741848231767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.44598765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>3223955.655694135</v>
+        <v>3442762.081180581</v>
       </c>
     </row>
     <row r="3">
@@ -7108,28 +7108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1553.058632681895</v>
+        <v>1667.618048440835</v>
       </c>
       <c r="AB3" t="n">
-        <v>2124.963337346618</v>
+        <v>2281.708583992729</v>
       </c>
       <c r="AC3" t="n">
-        <v>1922.159818835031</v>
+        <v>2063.945519134573</v>
       </c>
       <c r="AD3" t="n">
-        <v>1553058.632681895</v>
+        <v>1667618.048440835</v>
       </c>
       <c r="AE3" t="n">
-        <v>2124963.337346618</v>
+        <v>2281708.583992729</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.80891020917269e-07</v>
+        <v>1.489189977326669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.00154320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>1922159.818835031</v>
+        <v>2063945.519134573</v>
       </c>
     </row>
     <row r="4">
@@ -7214,28 +7214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1319.609120656352</v>
+        <v>1434.08310605217</v>
       </c>
       <c r="AB4" t="n">
-        <v>1805.547415927672</v>
+        <v>1962.175772982038</v>
       </c>
       <c r="AC4" t="n">
-        <v>1633.228504653249</v>
+        <v>1774.908471139625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1319609.120656352</v>
+        <v>1434083.10605217</v>
       </c>
       <c r="AE4" t="n">
-        <v>1805547.415927672</v>
+        <v>1962175.772982038</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.80833524512664e-07</v>
+        <v>1.658147738422039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.65586419753086</v>
       </c>
       <c r="AH4" t="n">
-        <v>1633228.504653249</v>
+        <v>1774908.471139625</v>
       </c>
     </row>
     <row r="5">
@@ -7320,28 +7320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1219.698124849916</v>
+        <v>1323.842966895724</v>
       </c>
       <c r="AB5" t="n">
-        <v>1668.844783703255</v>
+        <v>1811.340351136495</v>
       </c>
       <c r="AC5" t="n">
-        <v>1509.57257978498</v>
+        <v>1638.468570256176</v>
       </c>
       <c r="AD5" t="n">
-        <v>1219698.124849916</v>
+        <v>1323842.966895724</v>
       </c>
       <c r="AE5" t="n">
-        <v>1668844.783703255</v>
+        <v>1811340.351136494</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.034612359868252e-06</v>
+        <v>1.749063527892171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1509572.579784981</v>
+        <v>1638468.570256176</v>
       </c>
     </row>
     <row r="6">
@@ -7426,28 +7426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1158.091223479803</v>
+        <v>1262.15072467104</v>
       </c>
       <c r="AB6" t="n">
-        <v>1584.551503343999</v>
+        <v>1726.93030365504</v>
       </c>
       <c r="AC6" t="n">
-        <v>1433.324131796849</v>
+        <v>1562.114499236106</v>
       </c>
       <c r="AD6" t="n">
-        <v>1158091.223479803</v>
+        <v>1262150.72467104</v>
       </c>
       <c r="AE6" t="n">
-        <v>1584551.503343998</v>
+        <v>1726930.30365504</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.067751466420378e-06</v>
+        <v>1.805086831755113e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.97762345679012</v>
       </c>
       <c r="AH6" t="n">
-        <v>1433324.131796849</v>
+        <v>1562114.499236106</v>
       </c>
     </row>
     <row r="7">
@@ -7532,28 +7532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1119.863686970219</v>
+        <v>1223.923188161456</v>
       </c>
       <c r="AB7" t="n">
-        <v>1532.2469014117</v>
+        <v>1674.625701722741</v>
       </c>
       <c r="AC7" t="n">
-        <v>1386.011407663</v>
+        <v>1514.801775102256</v>
       </c>
       <c r="AD7" t="n">
-        <v>1119863.686970219</v>
+        <v>1223923.188161456</v>
       </c>
       <c r="AE7" t="n">
-        <v>1532246.9014117</v>
+        <v>1674625.701722742</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.0926977035238e-06</v>
+        <v>1.847259683315965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1386011.407663</v>
+        <v>1514801.775102256</v>
       </c>
     </row>
     <row r="8">
@@ -7638,28 +7638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1097.695220084451</v>
+        <v>1191.340326579657</v>
       </c>
       <c r="AB8" t="n">
-        <v>1501.915027014857</v>
+        <v>1630.044393052123</v>
       </c>
       <c r="AC8" t="n">
-        <v>1358.574364787538</v>
+        <v>1474.475243960902</v>
       </c>
       <c r="AD8" t="n">
-        <v>1097695.22008445</v>
+        <v>1191340.326579657</v>
       </c>
       <c r="AE8" t="n">
-        <v>1501915.027014857</v>
+        <v>1630044.393052123</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.107402853816344e-06</v>
+        <v>1.872119469499204e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1358574.364787538</v>
+        <v>1474475.243960902</v>
       </c>
     </row>
     <row r="9">
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1077.597609192829</v>
+        <v>1171.242715688036</v>
       </c>
       <c r="AB9" t="n">
-        <v>1474.416589148925</v>
+        <v>1602.54595518619</v>
       </c>
       <c r="AC9" t="n">
-        <v>1333.70033923723</v>
+        <v>1449.601218410594</v>
       </c>
       <c r="AD9" t="n">
-        <v>1077597.609192829</v>
+        <v>1171242.715688036</v>
       </c>
       <c r="AE9" t="n">
-        <v>1474416.589148925</v>
+        <v>1602545.95518619</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.120374897110123e-06</v>
+        <v>1.894049352310847e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.08256172839506</v>
       </c>
       <c r="AH9" t="n">
-        <v>1333700.33923723</v>
+        <v>1449601.218410594</v>
       </c>
     </row>
     <row r="10">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1050.842207048079</v>
+        <v>1154.816367384744</v>
       </c>
       <c r="AB10" t="n">
-        <v>1437.808667569441</v>
+        <v>1580.070700758284</v>
       </c>
       <c r="AC10" t="n">
-        <v>1300.586226313752</v>
+        <v>1429.27097072107</v>
       </c>
       <c r="AD10" t="n">
-        <v>1050842.207048079</v>
+        <v>1154816.367384744</v>
       </c>
       <c r="AE10" t="n">
-        <v>1437808.667569441</v>
+        <v>1580070.700758284</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.130353391951492e-06</v>
+        <v>1.910918492935187e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.92438271604938</v>
       </c>
       <c r="AH10" t="n">
-        <v>1300586.226313752</v>
+        <v>1429270.97072107</v>
       </c>
     </row>
     <row r="11">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1036.937014514746</v>
+        <v>1130.667372355973</v>
       </c>
       <c r="AB11" t="n">
-        <v>1418.782969691535</v>
+        <v>1547.02898038145</v>
       </c>
       <c r="AC11" t="n">
-        <v>1283.376314338578</v>
+        <v>1399.382705762654</v>
       </c>
       <c r="AD11" t="n">
-        <v>1036937.014514746</v>
+        <v>1130667.372355973</v>
       </c>
       <c r="AE11" t="n">
-        <v>1418782.969691535</v>
+        <v>1547028.98038145</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.138598779794097e-06</v>
+        <v>1.924857730187932e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.79320987654321</v>
       </c>
       <c r="AH11" t="n">
-        <v>1283376.314338578</v>
+        <v>1399382.705762654</v>
       </c>
     </row>
     <row r="12">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1025.938957927656</v>
+        <v>1119.669315768883</v>
       </c>
       <c r="AB12" t="n">
-        <v>1403.734943469065</v>
+        <v>1531.980954158981</v>
       </c>
       <c r="AC12" t="n">
-        <v>1269.764450618744</v>
+        <v>1385.77084204282</v>
       </c>
       <c r="AD12" t="n">
-        <v>1025938.957927656</v>
+        <v>1119669.315768883</v>
       </c>
       <c r="AE12" t="n">
-        <v>1403734.943469065</v>
+        <v>1531980.954158981</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.145058542244036e-06</v>
+        <v>1.935778279118426e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.69675925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1269764.450618744</v>
+        <v>1385770.84204282</v>
       </c>
     </row>
     <row r="13">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1011.879496357874</v>
+        <v>1105.609854199102</v>
       </c>
       <c r="AB13" t="n">
-        <v>1384.498167889622</v>
+        <v>1512.744178579537</v>
       </c>
       <c r="AC13" t="n">
-        <v>1252.363605901618</v>
+        <v>1368.369997325694</v>
       </c>
       <c r="AD13" t="n">
-        <v>1011879.496357874</v>
+        <v>1105609.854199102</v>
       </c>
       <c r="AE13" t="n">
-        <v>1384498.167889622</v>
+        <v>1512744.178579537</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.152411117390308e-06</v>
+        <v>1.948208172210046e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.58101851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>1252363.605901618</v>
+        <v>1368369.997325694</v>
       </c>
     </row>
     <row r="14">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1004.292509740434</v>
+        <v>1098.022867581661</v>
       </c>
       <c r="AB14" t="n">
-        <v>1374.117318085413</v>
+        <v>1502.363328775328</v>
       </c>
       <c r="AC14" t="n">
-        <v>1242.973489833109</v>
+        <v>1358.979881257186</v>
       </c>
       <c r="AD14" t="n">
-        <v>1004292.509740434</v>
+        <v>1098022.867581661</v>
       </c>
       <c r="AE14" t="n">
-        <v>1374117.318085413</v>
+        <v>1502363.328775328</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.155772294600032e-06</v>
+        <v>1.953890409051929e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.53086419753086</v>
       </c>
       <c r="AH14" t="n">
-        <v>1242973.489833109</v>
+        <v>1358979.881257185</v>
       </c>
     </row>
     <row r="15">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>993.9218108008067</v>
+        <v>1087.481576441442</v>
       </c>
       <c r="AB15" t="n">
-        <v>1359.927670273269</v>
+        <v>1487.940269188337</v>
       </c>
       <c r="AC15" t="n">
-        <v>1230.13808209286</v>
+        <v>1345.933338234285</v>
       </c>
       <c r="AD15" t="n">
-        <v>993921.8108008067</v>
+        <v>1087481.576441442</v>
       </c>
       <c r="AE15" t="n">
-        <v>1359927.670273269</v>
+        <v>1487940.269188337</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.160446431657305e-06</v>
+        <v>1.961792269660173e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.46141975308642</v>
       </c>
       <c r="AH15" t="n">
-        <v>1230138.08209286</v>
+        <v>1345933.338234285</v>
       </c>
     </row>
     <row r="16">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>985.4021952318457</v>
+        <v>1078.961960872481</v>
       </c>
       <c r="AB16" t="n">
-        <v>1348.270756392904</v>
+        <v>1476.283355307972</v>
       </c>
       <c r="AC16" t="n">
-        <v>1219.593687712656</v>
+        <v>1335.388943854081</v>
       </c>
       <c r="AD16" t="n">
-        <v>985402.1952318457</v>
+        <v>1078961.960872481</v>
       </c>
       <c r="AE16" t="n">
-        <v>1348270.756392904</v>
+        <v>1476283.355307972</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.163807608867029e-06</v>
+        <v>1.967474506502056e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.41126543209877</v>
       </c>
       <c r="AH16" t="n">
-        <v>1219593.687712656</v>
+        <v>1335388.943854081</v>
       </c>
     </row>
     <row r="17">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>975.4414236072852</v>
+        <v>1069.00118924792</v>
       </c>
       <c r="AB17" t="n">
-        <v>1334.64198921795</v>
+        <v>1462.654588133018</v>
       </c>
       <c r="AC17" t="n">
-        <v>1207.265630948785</v>
+        <v>1323.06088709021</v>
       </c>
       <c r="AD17" t="n">
-        <v>975441.4236072851</v>
+        <v>1069001.18924792</v>
       </c>
       <c r="AE17" t="n">
-        <v>1334641.98921795</v>
+        <v>1462654.588133018</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.167799006803577e-06</v>
+        <v>1.974222162751792e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.34953703703704</v>
       </c>
       <c r="AH17" t="n">
-        <v>1207265.630948785</v>
+        <v>1323060.88709021</v>
       </c>
     </row>
     <row r="18">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>970.7533531237432</v>
+        <v>1064.313118764378</v>
       </c>
       <c r="AB18" t="n">
-        <v>1328.227564359295</v>
+        <v>1456.240163274363</v>
       </c>
       <c r="AC18" t="n">
-        <v>1201.463389795938</v>
+        <v>1317.258645937363</v>
       </c>
       <c r="AD18" t="n">
-        <v>970753.3531237432</v>
+        <v>1064313.118764379</v>
       </c>
       <c r="AE18" t="n">
-        <v>1328227.564359295</v>
+        <v>1456240.163274363</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.169427077014537e-06</v>
+        <v>1.976974496222079e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.32638888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>1201463.389795938</v>
+        <v>1317258.645937363</v>
       </c>
     </row>
     <row r="19">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>962.0892931304786</v>
+        <v>1055.649058771114</v>
       </c>
       <c r="AB19" t="n">
-        <v>1316.37301524516</v>
+        <v>1444.385614160228</v>
       </c>
       <c r="AC19" t="n">
-        <v>1190.740222211292</v>
+        <v>1306.535478352717</v>
       </c>
       <c r="AD19" t="n">
-        <v>962089.2931304786</v>
+        <v>1055649.058771114</v>
       </c>
       <c r="AE19" t="n">
-        <v>1316373.01524516</v>
+        <v>1444385.614160228</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.171265220801105e-06</v>
+        <v>1.980081969494984e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.29938271604938</v>
       </c>
       <c r="AH19" t="n">
-        <v>1190740.222211292</v>
+        <v>1306535.478352717</v>
       </c>
     </row>
     <row r="20">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>955.3508984684969</v>
+        <v>1048.910664109132</v>
       </c>
       <c r="AB20" t="n">
-        <v>1307.153246391645</v>
+        <v>1435.165845306713</v>
       </c>
       <c r="AC20" t="n">
-        <v>1182.400375157129</v>
+        <v>1298.195631298554</v>
       </c>
       <c r="AD20" t="n">
-        <v>955350.8984684969</v>
+        <v>1048910.664109132</v>
       </c>
       <c r="AE20" t="n">
-        <v>1307153.246391645</v>
+        <v>1435165.845306713</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.174941508374241e-06</v>
+        <v>1.986296916040794e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH20" t="n">
-        <v>1182400.375157129</v>
+        <v>1298195.631298554</v>
       </c>
     </row>
     <row r="21">
@@ -9016,28 +9016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>949.2827383507487</v>
+        <v>1042.842503991384</v>
       </c>
       <c r="AB21" t="n">
-        <v>1298.850522010211</v>
+        <v>1426.863120925279</v>
       </c>
       <c r="AC21" t="n">
-        <v>1174.890051137713</v>
+        <v>1290.685307279138</v>
       </c>
       <c r="AD21" t="n">
-        <v>949282.7383507487</v>
+        <v>1042842.503991384</v>
       </c>
       <c r="AE21" t="n">
-        <v>1298850.522010211</v>
+        <v>1426863.120925279</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.176201949827887e-06</v>
+        <v>1.9884277548565e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.22608024691358</v>
       </c>
       <c r="AH21" t="n">
-        <v>1174890.051137713</v>
+        <v>1290685.307279138</v>
       </c>
     </row>
     <row r="22">
@@ -9122,28 +9122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>942.5181489527682</v>
+        <v>1036.077914593403</v>
       </c>
       <c r="AB22" t="n">
-        <v>1289.594912363273</v>
+        <v>1417.607511278341</v>
       </c>
       <c r="AC22" t="n">
-        <v>1166.517783885148</v>
+        <v>1282.313040026573</v>
       </c>
       <c r="AD22" t="n">
-        <v>942518.1489527682</v>
+        <v>1036077.914593403</v>
       </c>
       <c r="AE22" t="n">
-        <v>1289594.912363273</v>
+        <v>1417607.511278341</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.177830020038847e-06</v>
+        <v>1.991180088326787e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.20293209876543</v>
       </c>
       <c r="AH22" t="n">
-        <v>1166517.783885148</v>
+        <v>1282313.040026573</v>
       </c>
     </row>
     <row r="23">
@@ -9228,28 +9228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>932.2485721171807</v>
+        <v>1025.808337757816</v>
       </c>
       <c r="AB23" t="n">
-        <v>1275.543624275067</v>
+        <v>1403.556223190136</v>
       </c>
       <c r="AC23" t="n">
-        <v>1153.807531010975</v>
+        <v>1269.6027871524</v>
       </c>
       <c r="AD23" t="n">
-        <v>932248.5721171808</v>
+        <v>1025808.337757816</v>
       </c>
       <c r="AE23" t="n">
-        <v>1275543.624275067</v>
+        <v>1403556.223190136</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.180403421340042e-06</v>
+        <v>1.995530550908854e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH23" t="n">
-        <v>1153807.531010975</v>
+        <v>1269602.7871524</v>
       </c>
     </row>
     <row r="24">
@@ -9334,28 +9334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>926.478951980674</v>
+        <v>1009.794915125872</v>
       </c>
       <c r="AB24" t="n">
-        <v>1267.649375466623</v>
+        <v>1381.645951882762</v>
       </c>
       <c r="AC24" t="n">
-        <v>1146.66669822916</v>
+        <v>1249.783601387343</v>
       </c>
       <c r="AD24" t="n">
-        <v>926478.9519806739</v>
+        <v>1009794.915125872</v>
       </c>
       <c r="AE24" t="n">
-        <v>1267649.375466623</v>
+        <v>1381645.951882762</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.181821417975395e-06</v>
+        <v>1.997927744576524e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.14506172839506</v>
       </c>
       <c r="AH24" t="n">
-        <v>1146666.69822916</v>
+        <v>1249783.601387343</v>
       </c>
     </row>
     <row r="25">
@@ -9440,28 +9440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>921.783243129338</v>
+        <v>1005.099206274536</v>
       </c>
       <c r="AB25" t="n">
-        <v>1261.224499456171</v>
+        <v>1375.22107587231</v>
       </c>
       <c r="AC25" t="n">
-        <v>1140.855003367776</v>
+        <v>1243.971906525959</v>
       </c>
       <c r="AD25" t="n">
-        <v>921783.2431293379</v>
+        <v>1005099.206274536</v>
       </c>
       <c r="AE25" t="n">
-        <v>1261224.499456171</v>
+        <v>1375221.07587231</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.181558826005885e-06</v>
+        <v>1.997483819823251e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.14891975308642</v>
       </c>
       <c r="AH25" t="n">
-        <v>1140855.003367776</v>
+        <v>1243971.906525959</v>
       </c>
     </row>
     <row r="26">
@@ -9546,28 +9546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>919.3262954171091</v>
+        <v>1002.642258562307</v>
       </c>
       <c r="AB26" t="n">
-        <v>1257.862795203416</v>
+        <v>1371.859371619556</v>
       </c>
       <c r="AC26" t="n">
-        <v>1137.814135450722</v>
+        <v>1240.931038608906</v>
       </c>
       <c r="AD26" t="n">
-        <v>919326.2954171092</v>
+        <v>1002642.258562307</v>
       </c>
       <c r="AE26" t="n">
-        <v>1257862.795203416</v>
+        <v>1371859.371619556</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.183764598549767e-06</v>
+        <v>2.001212787750737e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.1141975308642</v>
       </c>
       <c r="AH26" t="n">
-        <v>1137814.135450722</v>
+        <v>1240931.038608906</v>
       </c>
     </row>
     <row r="27">
@@ -9652,28 +9652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>919.1350304191374</v>
+        <v>1002.450993564335</v>
       </c>
       <c r="AB27" t="n">
-        <v>1257.601097995175</v>
+        <v>1371.597674411315</v>
       </c>
       <c r="AC27" t="n">
-        <v>1137.577414256741</v>
+        <v>1240.694317414924</v>
       </c>
       <c r="AD27" t="n">
-        <v>919135.0304191373</v>
+        <v>1002450.993564335</v>
       </c>
       <c r="AE27" t="n">
-        <v>1257601.097995175</v>
+        <v>1371597.674411315</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.182976822641238e-06</v>
+        <v>1.999881013490921e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>17.12577160493827</v>
       </c>
       <c r="AH27" t="n">
-        <v>1137577.414256741</v>
+        <v>1240694.317414925</v>
       </c>
     </row>
     <row r="28">
@@ -9758,28 +9758,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>921.9592295607068</v>
+        <v>1005.275192705905</v>
       </c>
       <c r="AB28" t="n">
-        <v>1261.465291855543</v>
+        <v>1375.461868271683</v>
       </c>
       <c r="AC28" t="n">
-        <v>1141.072814878506</v>
+        <v>1244.18971803669</v>
       </c>
       <c r="AD28" t="n">
-        <v>921959.2295607069</v>
+        <v>1005275.192705905</v>
       </c>
       <c r="AE28" t="n">
-        <v>1261465.291855543</v>
+        <v>1375461.868271683</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.182924304247336e-06</v>
+        <v>1.999792228540267e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>17.12962962962963</v>
       </c>
       <c r="AH28" t="n">
-        <v>1141072.814878506</v>
+        <v>1244189.71803669</v>
       </c>
     </row>
     <row r="29">
@@ -9864,28 +9864,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>925.2987767386784</v>
+        <v>1008.614739883876</v>
       </c>
       <c r="AB29" t="n">
-        <v>1266.034607634867</v>
+        <v>1380.031184051007</v>
       </c>
       <c r="AC29" t="n">
-        <v>1145.206041572927</v>
+        <v>1248.32294473111</v>
       </c>
       <c r="AD29" t="n">
-        <v>925298.7767386783</v>
+        <v>1008614.739883876</v>
       </c>
       <c r="AE29" t="n">
-        <v>1266034.607634867</v>
+        <v>1380031.184051007</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.182924304247336e-06</v>
+        <v>1.999792228540267e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>17.12962962962963</v>
       </c>
       <c r="AH29" t="n">
-        <v>1145206.041572927</v>
+        <v>1248322.94473111</v>
       </c>
     </row>
   </sheetData>
@@ -10161,28 +10161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1956.693034537029</v>
+        <v>2107.795619139767</v>
       </c>
       <c r="AB2" t="n">
-        <v>2677.23373305786</v>
+        <v>2883.978955486884</v>
       </c>
       <c r="AC2" t="n">
-        <v>2421.722303095961</v>
+        <v>2608.736051665102</v>
       </c>
       <c r="AD2" t="n">
-        <v>1956693.034537029</v>
+        <v>2107795.619139767</v>
       </c>
       <c r="AE2" t="n">
-        <v>2677233.73305786</v>
+        <v>2883978.955486884</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.378495332054116e-07</v>
+        <v>1.277801186480731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.40663580246913</v>
       </c>
       <c r="AH2" t="n">
-        <v>2421722.303095961</v>
+        <v>2608736.051665102</v>
       </c>
     </row>
     <row r="3">
@@ -10267,28 +10267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1276.842326729644</v>
+        <v>1387.667980811514</v>
       </c>
       <c r="AB3" t="n">
-        <v>1747.032001739361</v>
+        <v>1898.668550936964</v>
       </c>
       <c r="AC3" t="n">
-        <v>1580.29771946817</v>
+        <v>1717.462289233588</v>
       </c>
       <c r="AD3" t="n">
-        <v>1276842.326729644</v>
+        <v>1387667.980811514</v>
       </c>
       <c r="AE3" t="n">
-        <v>1747032.001739361</v>
+        <v>1898668.550936965</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.749979915252422e-07</v>
+        <v>1.688492754037493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.49691358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>1580297.719468171</v>
+        <v>1717462.289233588</v>
       </c>
     </row>
     <row r="4">
@@ -10373,28 +10373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1115.212183415561</v>
+        <v>1216.117861854163</v>
       </c>
       <c r="AB4" t="n">
-        <v>1525.882509038364</v>
+        <v>1663.94610992241</v>
       </c>
       <c r="AC4" t="n">
-        <v>1380.254423965294</v>
+        <v>1505.141428554447</v>
       </c>
       <c r="AD4" t="n">
-        <v>1115212.183415561</v>
+        <v>1216117.861854163</v>
       </c>
       <c r="AE4" t="n">
-        <v>1525882.509038364</v>
+        <v>1663946.10992241</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064261431850439e-06</v>
+        <v>1.843078377289672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.69521604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>1380254.423965294</v>
+        <v>1505141.428554447</v>
       </c>
     </row>
     <row r="5">
@@ -10479,28 +10479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1039.431722893264</v>
+        <v>1140.252060477294</v>
       </c>
       <c r="AB5" t="n">
-        <v>1422.196339753789</v>
+        <v>1560.143173515637</v>
       </c>
       <c r="AC5" t="n">
-        <v>1286.463917152786</v>
+        <v>1411.24529871</v>
       </c>
       <c r="AD5" t="n">
-        <v>1039431.722893264</v>
+        <v>1140252.060477294</v>
       </c>
       <c r="AE5" t="n">
-        <v>1422196.339753789</v>
+        <v>1560143.173515637</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.111473805339541e-06</v>
+        <v>1.924840341140033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.85802469135803</v>
       </c>
       <c r="AH5" t="n">
-        <v>1286463.917152786</v>
+        <v>1411245.29871</v>
       </c>
     </row>
     <row r="6">
@@ -10585,28 +10585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1001.321722030822</v>
+        <v>1092.051581279542</v>
       </c>
       <c r="AB6" t="n">
-        <v>1370.052555279218</v>
+        <v>1494.19315142221</v>
       </c>
       <c r="AC6" t="n">
-        <v>1239.296662284207</v>
+        <v>1351.589454163732</v>
       </c>
       <c r="AD6" t="n">
-        <v>1001321.722030822</v>
+        <v>1092051.581279543</v>
       </c>
       <c r="AE6" t="n">
-        <v>1370052.555279218</v>
+        <v>1494193.15142221</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.139616508984369e-06</v>
+        <v>1.973577622238407e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.39120370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>1239296.662284207</v>
+        <v>1351589.454163732</v>
       </c>
     </row>
     <row r="7">
@@ -10691,28 +10691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>972.9900678507837</v>
+        <v>1063.719927099505</v>
       </c>
       <c r="AB7" t="n">
-        <v>1331.287936125721</v>
+        <v>1455.428532268713</v>
       </c>
       <c r="AC7" t="n">
-        <v>1204.231683976235</v>
+        <v>1316.524475855761</v>
       </c>
       <c r="AD7" t="n">
-        <v>972990.0678507837</v>
+        <v>1063719.927099505</v>
       </c>
       <c r="AE7" t="n">
-        <v>1331287.936125721</v>
+        <v>1455428.532268713</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.160479053771268e-06</v>
+        <v>2.009707189693572e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.06327160493827</v>
       </c>
       <c r="AH7" t="n">
-        <v>1204231.683976235</v>
+        <v>1316524.475855761</v>
       </c>
     </row>
     <row r="8">
@@ -10797,28 +10797,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>942.9039363484092</v>
+        <v>1043.638933077867</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290.122763697727</v>
+        <v>1427.952830337377</v>
       </c>
       <c r="AC8" t="n">
-        <v>1166.995257829087</v>
+        <v>1291.671016354362</v>
       </c>
       <c r="AD8" t="n">
-        <v>942903.9363484092</v>
+        <v>1043638.933077867</v>
       </c>
       <c r="AE8" t="n">
-        <v>1290122.763697727</v>
+        <v>1427952.830337377</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.173844121525375e-06</v>
+        <v>2.032852693844537e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.85493827160494</v>
       </c>
       <c r="AH8" t="n">
-        <v>1166995.257829087</v>
+        <v>1291671.016354362</v>
       </c>
     </row>
     <row r="9">
@@ -10903,28 +10903,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>925.1751898840655</v>
+        <v>1015.990300478807</v>
       </c>
       <c r="AB9" t="n">
-        <v>1265.865510648118</v>
+        <v>1390.12275144376</v>
       </c>
       <c r="AC9" t="n">
-        <v>1145.053082965264</v>
+        <v>1257.451387095502</v>
       </c>
       <c r="AD9" t="n">
-        <v>925175.1898840655</v>
+        <v>1015990.300478807</v>
       </c>
       <c r="AE9" t="n">
-        <v>1265865.510648118</v>
+        <v>1390122.75144376</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.184764359812268e-06</v>
+        <v>2.051764264309351e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.6929012345679</v>
       </c>
       <c r="AH9" t="n">
-        <v>1145053.082965264</v>
+        <v>1257451.387095502</v>
       </c>
     </row>
     <row r="10">
@@ -11009,28 +11009,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>910.6643690837012</v>
+        <v>1001.479479678442</v>
       </c>
       <c r="AB10" t="n">
-        <v>1246.011165456827</v>
+        <v>1370.268406252468</v>
       </c>
       <c r="AC10" t="n">
-        <v>1127.093608613281</v>
+        <v>1239.491912743519</v>
       </c>
       <c r="AD10" t="n">
-        <v>910664.3690837012</v>
+        <v>1001479.479678442</v>
       </c>
       <c r="AE10" t="n">
-        <v>1246011.165456827</v>
+        <v>1370268.406252468</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.193239768631946e-06</v>
+        <v>2.066441901088011e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.56558641975309</v>
       </c>
       <c r="AH10" t="n">
-        <v>1127093.608613281</v>
+        <v>1239491.912743519</v>
       </c>
     </row>
     <row r="11">
@@ -11115,28 +11115,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>895.1616379673953</v>
+        <v>985.8061563615443</v>
       </c>
       <c r="AB11" t="n">
-        <v>1224.799644811271</v>
+        <v>1348.823473832065</v>
       </c>
       <c r="AC11" t="n">
-        <v>1107.90648572758</v>
+        <v>1220.093654575167</v>
       </c>
       <c r="AD11" t="n">
-        <v>895161.6379673954</v>
+        <v>985806.1563615443</v>
       </c>
       <c r="AE11" t="n">
-        <v>1224799.644811271</v>
+        <v>1348823.473832065</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.20122621155818e-06</v>
+        <v>2.080272751129442e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.44984567901234</v>
       </c>
       <c r="AH11" t="n">
-        <v>1107906.48572758</v>
+        <v>1220093.654575167</v>
       </c>
     </row>
     <row r="12">
@@ -11221,28 +11221,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>886.6255475188806</v>
+        <v>977.2700659130296</v>
       </c>
       <c r="AB12" t="n">
-        <v>1213.12018927388</v>
+        <v>1337.144018294674</v>
       </c>
       <c r="AC12" t="n">
-        <v>1097.341701034459</v>
+        <v>1209.528869882046</v>
       </c>
       <c r="AD12" t="n">
-        <v>886625.5475188806</v>
+        <v>977270.0659130296</v>
       </c>
       <c r="AE12" t="n">
-        <v>1213120.18927388</v>
+        <v>1337144.018294674</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.205789893230315e-06</v>
+        <v>2.088176094010259e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.38425925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1097341.70103446</v>
+        <v>1209528.869882046</v>
       </c>
     </row>
     <row r="13">
@@ -11327,28 +11327,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>874.5796617085988</v>
+        <v>965.2241801027477</v>
       </c>
       <c r="AB13" t="n">
-        <v>1196.638476881277</v>
+        <v>1320.662305902071</v>
       </c>
       <c r="AC13" t="n">
-        <v>1082.432980140378</v>
+        <v>1194.620148987964</v>
       </c>
       <c r="AD13" t="n">
-        <v>874579.6617085988</v>
+        <v>965224.1801027477</v>
       </c>
       <c r="AE13" t="n">
-        <v>1196638.476881277</v>
+        <v>1320662.305902071</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.211059858970755e-06</v>
+        <v>2.097302573289299e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.3070987654321</v>
       </c>
       <c r="AH13" t="n">
-        <v>1082432.980140378</v>
+        <v>1194620.148987964</v>
       </c>
     </row>
     <row r="14">
@@ -11433,28 +11433,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>860.6304112648395</v>
+        <v>951.2749296589885</v>
       </c>
       <c r="AB14" t="n">
-        <v>1177.552497026628</v>
+        <v>1301.576326047423</v>
       </c>
       <c r="AC14" t="n">
-        <v>1065.168539415716</v>
+        <v>1177.355708263303</v>
       </c>
       <c r="AD14" t="n">
-        <v>860630.4112648395</v>
+        <v>951274.9296589885</v>
       </c>
       <c r="AE14" t="n">
-        <v>1177552.497026628</v>
+        <v>1301576.326047423</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.216221165623764e-06</v>
+        <v>2.106240877737842e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.2337962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>1065168.539415716</v>
+        <v>1177355.708263303</v>
       </c>
     </row>
     <row r="15">
@@ -11539,28 +11539,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>852.0161451032789</v>
+        <v>942.6606634974278</v>
       </c>
       <c r="AB15" t="n">
-        <v>1165.76607802978</v>
+        <v>1289.789907050574</v>
       </c>
       <c r="AC15" t="n">
-        <v>1054.506999705584</v>
+        <v>1166.69416855317</v>
       </c>
       <c r="AD15" t="n">
-        <v>852016.1451032788</v>
+        <v>942660.6634974278</v>
       </c>
       <c r="AE15" t="n">
-        <v>1165766.07802978</v>
+        <v>1289789.907050574</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.218665995090979e-06</v>
+        <v>2.110474811423994e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>1054506.999705584</v>
+        <v>1166694.16855317</v>
       </c>
     </row>
     <row r="16">
@@ -11645,28 +11645,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>841.0999030809376</v>
+        <v>931.7444214750866</v>
       </c>
       <c r="AB16" t="n">
-        <v>1150.829994104203</v>
+        <v>1274.853823124997</v>
       </c>
       <c r="AC16" t="n">
-        <v>1040.996394666938</v>
+        <v>1153.183563514525</v>
       </c>
       <c r="AD16" t="n">
-        <v>841099.9030809376</v>
+        <v>931744.4214750866</v>
       </c>
       <c r="AE16" t="n">
-        <v>1150829.994104203</v>
+        <v>1274853.823124997</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.220839176839614e-06</v>
+        <v>2.114238308033907e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.16820987654321</v>
       </c>
       <c r="AH16" t="n">
-        <v>1040996.394666938</v>
+        <v>1153183.563514525</v>
       </c>
     </row>
     <row r="17">
@@ -11751,28 +11751,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>832.7387633756933</v>
+        <v>913.4633956351254</v>
       </c>
       <c r="AB17" t="n">
-        <v>1139.389913892038</v>
+        <v>1249.840917068823</v>
       </c>
       <c r="AC17" t="n">
-        <v>1030.648139653968</v>
+        <v>1130.557854106518</v>
       </c>
       <c r="AD17" t="n">
-        <v>832738.7633756934</v>
+        <v>913463.3956351253</v>
       </c>
       <c r="AE17" t="n">
-        <v>1139389.913892038</v>
+        <v>1249840.917068823</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.224424926724863e-06</v>
+        <v>2.120448077440264e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>1030648.139653969</v>
+        <v>1130557.854106518</v>
       </c>
     </row>
     <row r="18">
@@ -11857,28 +11857,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>825.554838400602</v>
+        <v>906.279470660034</v>
       </c>
       <c r="AB18" t="n">
-        <v>1129.560550808716</v>
+        <v>1240.011553985501</v>
       </c>
       <c r="AC18" t="n">
-        <v>1021.756877187721</v>
+        <v>1121.66659164027</v>
       </c>
       <c r="AD18" t="n">
-        <v>825554.838400602</v>
+        <v>906279.470660034</v>
       </c>
       <c r="AE18" t="n">
-        <v>1129560.550808716</v>
+        <v>1240011.553985501</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.225294199424317e-06</v>
+        <v>2.121953476084229e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.10648148148148</v>
       </c>
       <c r="AH18" t="n">
-        <v>1021756.877187721</v>
+        <v>1121666.59164027</v>
       </c>
     </row>
     <row r="19">
@@ -11963,28 +11963,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>821.0741300727502</v>
+        <v>901.7987623321822</v>
       </c>
       <c r="AB19" t="n">
-        <v>1123.429847999649</v>
+        <v>1233.880851176433</v>
       </c>
       <c r="AC19" t="n">
-        <v>1016.211280050256</v>
+        <v>1116.120994502805</v>
       </c>
       <c r="AD19" t="n">
-        <v>821074.1300727503</v>
+        <v>901798.7623321821</v>
       </c>
       <c r="AE19" t="n">
-        <v>1123429.847999649</v>
+        <v>1233880.851176433</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.226815426648362e-06</v>
+        <v>2.124587923711169e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.08719135802469</v>
       </c>
       <c r="AH19" t="n">
-        <v>1016211.280050256</v>
+        <v>1116120.994502805</v>
       </c>
     </row>
     <row r="20">
@@ -12069,28 +12069,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>824.9065339889967</v>
+        <v>905.6311662484287</v>
       </c>
       <c r="AB20" t="n">
-        <v>1128.673512111585</v>
+        <v>1239.12451528837</v>
       </c>
       <c r="AC20" t="n">
-        <v>1020.954496218878</v>
+        <v>1120.864210671427</v>
       </c>
       <c r="AD20" t="n">
-        <v>824906.5339889966</v>
+        <v>905631.1662484288</v>
       </c>
       <c r="AE20" t="n">
-        <v>1128673.512111585</v>
+        <v>1239124.51528837</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.226543778929782e-06</v>
+        <v>2.124117486634929e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.08719135802469</v>
       </c>
       <c r="AH20" t="n">
-        <v>1020954.496218878</v>
+        <v>1120864.210671427</v>
       </c>
     </row>
   </sheetData>
@@ -12366,28 +12366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>915.7762362190997</v>
+        <v>1015.874665758376</v>
       </c>
       <c r="AB2" t="n">
-        <v>1253.005447591141</v>
+        <v>1389.964534917823</v>
       </c>
       <c r="AC2" t="n">
-        <v>1133.420366277233</v>
+        <v>1257.308270532743</v>
       </c>
       <c r="AD2" t="n">
-        <v>915776.2362190997</v>
+        <v>1015874.665758376</v>
       </c>
       <c r="AE2" t="n">
-        <v>1253005.447591141</v>
+        <v>1389964.534917823</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097109925406149e-06</v>
+        <v>2.075968065645593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.31944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1133420.366277233</v>
+        <v>1257308.270532743</v>
       </c>
     </row>
     <row r="3">
@@ -12472,28 +12472,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>725.1577527646194</v>
+        <v>816.2260680372015</v>
       </c>
       <c r="AB3" t="n">
-        <v>992.1928290347439</v>
+        <v>1116.796515641209</v>
       </c>
       <c r="AC3" t="n">
-        <v>897.4993379830489</v>
+        <v>1010.211023622165</v>
       </c>
       <c r="AD3" t="n">
-        <v>725157.7527646194</v>
+        <v>816226.0680372014</v>
       </c>
       <c r="AE3" t="n">
-        <v>992192.8290347439</v>
+        <v>1116796.515641209</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258187511293542e-06</v>
+        <v>2.380761520385073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.58796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>897499.3379830489</v>
+        <v>1010211.023622165</v>
       </c>
     </row>
     <row r="4">
@@ -12578,28 +12578,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.961384205386</v>
+        <v>743.9996747198243</v>
       </c>
       <c r="AB4" t="n">
-        <v>905.7247695449889</v>
+        <v>1017.973177900785</v>
       </c>
       <c r="AC4" t="n">
-        <v>819.2836687323124</v>
+        <v>920.8192465362621</v>
       </c>
       <c r="AD4" t="n">
-        <v>661961.384205386</v>
+        <v>743999.6747198242</v>
       </c>
       <c r="AE4" t="n">
-        <v>905724.769544989</v>
+        <v>1017973.177900785</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.313900835128887e-06</v>
+        <v>2.486183118016077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.80092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>819283.6687323124</v>
+        <v>920819.2465362621</v>
       </c>
     </row>
     <row r="5">
@@ -12684,28 +12684,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>627.290167767435</v>
+        <v>709.1578660812812</v>
       </c>
       <c r="AB5" t="n">
-        <v>858.2860816284682</v>
+        <v>970.3010782094177</v>
       </c>
       <c r="AC5" t="n">
-        <v>776.3724626099277</v>
+        <v>877.6969051312265</v>
       </c>
       <c r="AD5" t="n">
-        <v>627290.1677674351</v>
+        <v>709157.8660812812</v>
       </c>
       <c r="AE5" t="n">
-        <v>858286.0816284682</v>
+        <v>970301.0782094178</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343182157666942e-06</v>
+        <v>2.541589681297661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.41126543209877</v>
       </c>
       <c r="AH5" t="n">
-        <v>776372.4626099276</v>
+        <v>877696.9051312264</v>
       </c>
     </row>
     <row r="6">
@@ -12790,28 +12790,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>603.5497565889704</v>
+        <v>685.4174549028163</v>
       </c>
       <c r="AB6" t="n">
-        <v>825.8034037010699</v>
+        <v>937.8184002820194</v>
       </c>
       <c r="AC6" t="n">
-        <v>746.9898858741955</v>
+        <v>848.3143283954943</v>
       </c>
       <c r="AD6" t="n">
-        <v>603549.7565889703</v>
+        <v>685417.4549028163</v>
       </c>
       <c r="AE6" t="n">
-        <v>825803.4037010699</v>
+        <v>937818.4002820194</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.358277497857367e-06</v>
+        <v>2.570153313299969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.21836419753087</v>
       </c>
       <c r="AH6" t="n">
-        <v>746989.8858741955</v>
+        <v>848314.3283954943</v>
       </c>
     </row>
     <row r="7">
@@ -12896,28 +12896,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>604.3459460246384</v>
+        <v>686.2136443384845</v>
       </c>
       <c r="AB7" t="n">
-        <v>826.8927852123498</v>
+        <v>938.9077817932994</v>
       </c>
       <c r="AC7" t="n">
-        <v>747.9752983429955</v>
+        <v>849.2997408642943</v>
       </c>
       <c r="AD7" t="n">
-        <v>604345.9460246384</v>
+        <v>686213.6443384845</v>
       </c>
       <c r="AE7" t="n">
-        <v>826892.7852123498</v>
+        <v>938907.7817932994</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360520580536266e-06</v>
+        <v>2.574397708416778e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.19135802469136</v>
       </c>
       <c r="AH7" t="n">
-        <v>747975.2983429956</v>
+        <v>849299.7408642943</v>
       </c>
     </row>
   </sheetData>
@@ -13193,28 +13193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1217.803071037409</v>
+        <v>1331.592048184487</v>
       </c>
       <c r="AB2" t="n">
-        <v>1666.25188747311</v>
+        <v>1821.942986021118</v>
       </c>
       <c r="AC2" t="n">
-        <v>1507.227145931887</v>
+        <v>1648.059304548303</v>
       </c>
       <c r="AD2" t="n">
-        <v>1217803.071037409</v>
+        <v>1331592.048184487</v>
       </c>
       <c r="AE2" t="n">
-        <v>1666251.88747311</v>
+        <v>1821942.986021118</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.550352729837293e-07</v>
+        <v>1.739866857800982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.42978395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>1507227.145931887</v>
+        <v>1648059.304548303</v>
       </c>
     </row>
     <row r="3">
@@ -13299,28 +13299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>909.222466612566</v>
+        <v>1004.188774402291</v>
       </c>
       <c r="AB3" t="n">
-        <v>1244.038290883573</v>
+        <v>1373.975382819285</v>
       </c>
       <c r="AC3" t="n">
-        <v>1125.309022420351</v>
+        <v>1242.845100669573</v>
       </c>
       <c r="AD3" t="n">
-        <v>909222.466612566</v>
+        <v>1004188.774402291</v>
       </c>
       <c r="AE3" t="n">
-        <v>1244038.290883573</v>
+        <v>1373975.382819285</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.146947079524275e-06</v>
+        <v>2.089488490913476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.51003086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>1125309.022420351</v>
+        <v>1242845.100669573</v>
       </c>
     </row>
     <row r="4">
@@ -13405,28 +13405,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>824.8870676045195</v>
+        <v>910.2714932692511</v>
       </c>
       <c r="AB4" t="n">
-        <v>1128.646877345548</v>
+        <v>1245.473615435039</v>
       </c>
       <c r="AC4" t="n">
-        <v>1020.930403437529</v>
+        <v>1126.607361611116</v>
       </c>
       <c r="AD4" t="n">
-        <v>824887.0676045195</v>
+        <v>910271.4932692511</v>
       </c>
       <c r="AE4" t="n">
-        <v>1128646.877345548</v>
+        <v>1245473.615435039</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.214571487631339e-06</v>
+        <v>2.212685476168589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.42206790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>1020930.403437529</v>
+        <v>1126607.361611116</v>
       </c>
     </row>
     <row r="5">
@@ -13511,28 +13511,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>773.687862655564</v>
+        <v>868.4834887361452</v>
       </c>
       <c r="AB5" t="n">
-        <v>1058.593866384878</v>
+        <v>1188.297424076195</v>
       </c>
       <c r="AC5" t="n">
-        <v>957.5631535229278</v>
+        <v>1074.887985708272</v>
       </c>
       <c r="AD5" t="n">
-        <v>773687.862655564</v>
+        <v>868483.4887361452</v>
       </c>
       <c r="AE5" t="n">
-        <v>1058593.866384878</v>
+        <v>1188297.424076195</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251515525336485e-06</v>
+        <v>2.279989489554101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.87808641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>957563.1535229278</v>
+        <v>1074887.985708272</v>
       </c>
     </row>
     <row r="6">
@@ -13617,28 +13617,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>746.1468706267032</v>
+        <v>831.6165476374554</v>
       </c>
       <c r="AB6" t="n">
-        <v>1020.911066068175</v>
+        <v>1137.854448810316</v>
       </c>
       <c r="AC6" t="n">
-        <v>923.4767467803081</v>
+        <v>1029.259217204608</v>
       </c>
       <c r="AD6" t="n">
-        <v>746146.8706267031</v>
+        <v>831616.5476374554</v>
       </c>
       <c r="AE6" t="n">
-        <v>1020911.066068175</v>
+        <v>1137854.448810316</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.272568407105665e-06</v>
+        <v>2.31834326798258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.58487654320988</v>
       </c>
       <c r="AH6" t="n">
-        <v>923476.7467803081</v>
+        <v>1029259.217204608</v>
       </c>
     </row>
     <row r="7">
@@ -13723,28 +13723,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>725.3165845878457</v>
+        <v>810.6156693980057</v>
       </c>
       <c r="AB7" t="n">
-        <v>992.4101497424476</v>
+        <v>1109.120120709742</v>
       </c>
       <c r="AC7" t="n">
-        <v>897.6959179074208</v>
+        <v>1003.267253049069</v>
       </c>
       <c r="AD7" t="n">
-        <v>725316.5845878457</v>
+        <v>810615.6693980057</v>
       </c>
       <c r="AE7" t="n">
-        <v>992410.1497424477</v>
+        <v>1109120.120709742</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.287125633893721e-06</v>
+        <v>2.344863373727891e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.38425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>897695.9179074208</v>
+        <v>1003267.25304907</v>
       </c>
     </row>
     <row r="8">
@@ -13829,28 +13829,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>702.7968127868194</v>
+        <v>788.0958975969794</v>
       </c>
       <c r="AB8" t="n">
-        <v>961.5976044620695</v>
+        <v>1078.307575429364</v>
       </c>
       <c r="AC8" t="n">
-        <v>869.8240787029231</v>
+        <v>975.3954138445719</v>
       </c>
       <c r="AD8" t="n">
-        <v>702796.8127868194</v>
+        <v>788095.8975969794</v>
       </c>
       <c r="AE8" t="n">
-        <v>961597.6044620695</v>
+        <v>1078307.575429364</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.29878301470806e-06</v>
+        <v>2.366100589882503e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.22993827160494</v>
       </c>
       <c r="AH8" t="n">
-        <v>869824.0787029231</v>
+        <v>975395.4138445719</v>
       </c>
     </row>
     <row r="9">
@@ -13935,28 +13935,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>688.3749899758685</v>
+        <v>764.3481257161993</v>
       </c>
       <c r="AB9" t="n">
-        <v>941.865030246208</v>
+        <v>1045.814826264326</v>
       </c>
       <c r="AC9" t="n">
-        <v>851.9747536753815</v>
+        <v>946.0037270559858</v>
       </c>
       <c r="AD9" t="n">
-        <v>688374.9899758685</v>
+        <v>764348.1257161993</v>
       </c>
       <c r="AE9" t="n">
-        <v>941865.030246208</v>
+        <v>1045814.826264326</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.305626651206031e-06</v>
+        <v>2.378568209316554e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.13734567901234</v>
       </c>
       <c r="AH9" t="n">
-        <v>851974.7536753815</v>
+        <v>946003.7270559858</v>
       </c>
     </row>
     <row r="10">
@@ -14041,28 +14041,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>682.3316844628497</v>
+        <v>758.3048202031803</v>
       </c>
       <c r="AB10" t="n">
-        <v>933.596313031473</v>
+        <v>1037.546109049591</v>
       </c>
       <c r="AC10" t="n">
-        <v>844.4951912264032</v>
+        <v>938.5241646070075</v>
       </c>
       <c r="AD10" t="n">
-        <v>682331.6844628497</v>
+        <v>758304.8202031803</v>
       </c>
       <c r="AE10" t="n">
-        <v>933596.313031473</v>
+        <v>1037546.109049591</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.308120518743427e-06</v>
+        <v>2.383111494364556e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.10648148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>844495.1912264032</v>
+        <v>938524.1646070075</v>
       </c>
     </row>
     <row r="11">
@@ -14147,28 +14147,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>685.7000547147046</v>
+        <v>761.6731904550352</v>
       </c>
       <c r="AB11" t="n">
-        <v>938.2050658120685</v>
+        <v>1042.154861830187</v>
       </c>
       <c r="AC11" t="n">
-        <v>848.664091110044</v>
+        <v>942.6930644906481</v>
       </c>
       <c r="AD11" t="n">
-        <v>685700.0547147046</v>
+        <v>761673.1904550352</v>
       </c>
       <c r="AE11" t="n">
-        <v>938205.0658120685</v>
+        <v>1042154.861830187</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.308062521823953e-06</v>
+        <v>2.383005836572742e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.10648148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>848664.0911100439</v>
+        <v>942693.0644906481</v>
       </c>
     </row>
   </sheetData>
@@ -14444,28 +14444,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>715.1616888407823</v>
+        <v>811.8201567693797</v>
       </c>
       <c r="AB2" t="n">
-        <v>978.5157733789335</v>
+        <v>1110.768153469488</v>
       </c>
       <c r="AC2" t="n">
-        <v>885.1276013231608</v>
+        <v>1004.757999875254</v>
       </c>
       <c r="AD2" t="n">
-        <v>715161.6888407823</v>
+        <v>811820.1567693796</v>
       </c>
       <c r="AE2" t="n">
-        <v>978515.7733789335</v>
+        <v>1110768.153469488</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.215437282739165e-06</v>
+        <v>2.381865459707843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.98456790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>885127.6013231608</v>
+        <v>1004757.999875254</v>
       </c>
     </row>
     <row r="3">
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.9805842841522</v>
+        <v>672.8364022456822</v>
       </c>
       <c r="AB3" t="n">
-        <v>800.396242939553</v>
+        <v>920.6044489996575</v>
       </c>
       <c r="AC3" t="n">
-        <v>724.0075488765837</v>
+        <v>832.7432524635888</v>
       </c>
       <c r="AD3" t="n">
-        <v>584980.5842841523</v>
+        <v>672836.4022456822</v>
       </c>
       <c r="AE3" t="n">
-        <v>800396.242939553</v>
+        <v>920604.4489996575</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.352507680818484e-06</v>
+        <v>2.650479275796942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.9591049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>724007.5488765837</v>
+        <v>832743.2524635887</v>
       </c>
     </row>
     <row r="4">
@@ -14656,28 +14656,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>543.9926702700895</v>
+        <v>623.0459277731031</v>
       </c>
       <c r="AB4" t="n">
-        <v>744.3147707263666</v>
+        <v>852.4789252255696</v>
       </c>
       <c r="AC4" t="n">
-        <v>673.2784136605832</v>
+        <v>771.1195330637265</v>
       </c>
       <c r="AD4" t="n">
-        <v>543992.6702700895</v>
+        <v>623045.9277731031</v>
       </c>
       <c r="AE4" t="n">
-        <v>744314.7707263667</v>
+        <v>852478.9252255696</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.394944726434222e-06</v>
+        <v>2.733642211967844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.41512345679012</v>
       </c>
       <c r="AH4" t="n">
-        <v>673278.4136605832</v>
+        <v>771119.5330637265</v>
       </c>
     </row>
     <row r="5">
@@ -14762,28 +14762,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.9802471725554</v>
+        <v>622.033504675569</v>
       </c>
       <c r="AB5" t="n">
-        <v>742.9295287793658</v>
+        <v>851.0936832785686</v>
       </c>
       <c r="AC5" t="n">
-        <v>672.0253772608047</v>
+        <v>769.8664966639481</v>
       </c>
       <c r="AD5" t="n">
-        <v>542980.2471725554</v>
+        <v>622033.504675569</v>
       </c>
       <c r="AE5" t="n">
-        <v>742929.5287793658</v>
+        <v>851093.6832785687</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.398281764145845e-06</v>
+        <v>2.740181730687514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>672025.3772608048</v>
+        <v>769866.4966639481</v>
       </c>
     </row>
   </sheetData>
@@ -15059,28 +15059,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2100.183155165556</v>
+        <v>2252.648160315208</v>
       </c>
       <c r="AB2" t="n">
-        <v>2873.563246439161</v>
+        <v>3082.172592766401</v>
       </c>
       <c r="AC2" t="n">
-        <v>2599.314403270353</v>
+        <v>2788.014366369062</v>
       </c>
       <c r="AD2" t="n">
-        <v>2100183.155165556</v>
+        <v>2252648.160315208</v>
       </c>
       <c r="AE2" t="n">
-        <v>2873563.246439161</v>
+        <v>3082172.592766401</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.085542100481202e-07</v>
+        <v>1.219054202733514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.31712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2599314.403270353</v>
+        <v>2788014.366369062</v>
       </c>
     </row>
     <row r="3">
@@ -15165,28 +15165,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1337.563534722365</v>
+        <v>1459.501330893415</v>
       </c>
       <c r="AB3" t="n">
-        <v>1830.113437345636</v>
+        <v>1996.954109582766</v>
       </c>
       <c r="AC3" t="n">
-        <v>1655.449979465709</v>
+        <v>1806.367612106882</v>
       </c>
       <c r="AD3" t="n">
-        <v>1337563.534722365</v>
+        <v>1459501.330893415</v>
       </c>
       <c r="AE3" t="n">
-        <v>1830113.437345636</v>
+        <v>1996954.109582766</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.506794594847764e-07</v>
+        <v>1.635626144199518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.85185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1655449.97946571</v>
+        <v>1806367.612106882</v>
       </c>
     </row>
     <row r="4">
@@ -15271,28 +15271,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1162.009377625241</v>
+        <v>1273.771467306275</v>
       </c>
       <c r="AB4" t="n">
-        <v>1589.912494702548</v>
+        <v>1742.830316399552</v>
       </c>
       <c r="AC4" t="n">
-        <v>1438.173477664338</v>
+        <v>1576.49703708009</v>
       </c>
       <c r="AD4" t="n">
-        <v>1162009.377625241</v>
+        <v>1273771.467306275</v>
       </c>
       <c r="AE4" t="n">
-        <v>1589912.494702548</v>
+        <v>1742830.316399551</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.043017641113388e-06</v>
+        <v>1.794492250406811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.91512345679012</v>
       </c>
       <c r="AH4" t="n">
-        <v>1438173.477664338</v>
+        <v>1576497.03708009</v>
       </c>
     </row>
     <row r="5">
@@ -15377,28 +15377,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1092.036920355463</v>
+        <v>1183.618368274159</v>
       </c>
       <c r="AB5" t="n">
-        <v>1494.17309169909</v>
+        <v>1619.478869029782</v>
       </c>
       <c r="AC5" t="n">
-        <v>1351.571308912434</v>
+        <v>1464.918078722448</v>
       </c>
       <c r="AD5" t="n">
-        <v>1092036.920355463</v>
+        <v>1183618.368274159</v>
       </c>
       <c r="AE5" t="n">
-        <v>1494173.09169909</v>
+        <v>1619478.869029782</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.090775056334716e-06</v>
+        <v>1.876657985803818e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.04320987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>1351571.308912433</v>
+        <v>1464918.078722448</v>
       </c>
     </row>
     <row r="6">
@@ -15483,28 +15483,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1039.746337569141</v>
+        <v>1141.418061614731</v>
       </c>
       <c r="AB6" t="n">
-        <v>1422.626809433144</v>
+        <v>1561.738547712218</v>
       </c>
       <c r="AC6" t="n">
-        <v>1286.853303410112</v>
+        <v>1412.688412632382</v>
       </c>
       <c r="AD6" t="n">
-        <v>1039746.337569141</v>
+        <v>1141418.06161473</v>
       </c>
       <c r="AE6" t="n">
-        <v>1422626.809433145</v>
+        <v>1561738.547712218</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.120764774799519e-06</v>
+        <v>1.928254732834409e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.53395061728395</v>
       </c>
       <c r="AH6" t="n">
-        <v>1286853.303410112</v>
+        <v>1412688.412632382</v>
       </c>
     </row>
     <row r="7">
@@ -15589,28 +15589,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1010.99480714877</v>
+        <v>1102.490914212894</v>
       </c>
       <c r="AB7" t="n">
-        <v>1383.287697083992</v>
+        <v>1508.476707292486</v>
       </c>
       <c r="AC7" t="n">
-        <v>1251.268660730771</v>
+        <v>1364.509807508847</v>
       </c>
       <c r="AD7" t="n">
-        <v>1010994.80714877</v>
+        <v>1102490.914212894</v>
       </c>
       <c r="AE7" t="n">
-        <v>1383287.697083991</v>
+        <v>1508476.707292486</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.141601437359444e-06</v>
+        <v>1.96410381919139e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.19444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1251268.660730771</v>
+        <v>1364509.807508847</v>
       </c>
     </row>
     <row r="8">
@@ -15695,28 +15695,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>979.185416545491</v>
+        <v>1080.771799736508</v>
       </c>
       <c r="AB8" t="n">
-        <v>1339.764685529314</v>
+        <v>1478.75965668619</v>
       </c>
       <c r="AC8" t="n">
-        <v>1211.899424313942</v>
+        <v>1337.628910504273</v>
       </c>
       <c r="AD8" t="n">
-        <v>979185.416545491</v>
+        <v>1080771.799736508</v>
       </c>
       <c r="AE8" t="n">
-        <v>1339764.685529314</v>
+        <v>1478759.65668619</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.15667705884983e-06</v>
+        <v>1.990041142653805e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.9591049382716</v>
       </c>
       <c r="AH8" t="n">
-        <v>1211899.424313942</v>
+        <v>1337628.910504273</v>
       </c>
     </row>
     <row r="9">
@@ -15801,28 +15801,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>960.843807874975</v>
+        <v>1052.42516628512</v>
       </c>
       <c r="AB9" t="n">
-        <v>1314.668887371649</v>
+        <v>1439.974542232793</v>
       </c>
       <c r="AC9" t="n">
-        <v>1189.19873391027</v>
+        <v>1302.545392939057</v>
       </c>
       <c r="AD9" t="n">
-        <v>960843.807874975</v>
+        <v>1052425.16628512</v>
       </c>
       <c r="AE9" t="n">
-        <v>1314668.887371649</v>
+        <v>1439974.542232793</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.168145299483588e-06</v>
+        <v>2.009772035144856e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.78163580246914</v>
       </c>
       <c r="AH9" t="n">
-        <v>1189198.73391027</v>
+        <v>1302545.392939057</v>
       </c>
     </row>
     <row r="10">
@@ -15907,28 +15907,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>945.1882978200942</v>
+        <v>1036.769656230239</v>
       </c>
       <c r="AB10" t="n">
-        <v>1293.248327842202</v>
+        <v>1418.553982703346</v>
       </c>
       <c r="AC10" t="n">
-        <v>1169.82252251837</v>
+        <v>1283.169181547157</v>
       </c>
       <c r="AD10" t="n">
-        <v>945188.2978200943</v>
+        <v>1036769.656230239</v>
       </c>
       <c r="AE10" t="n">
-        <v>1293248.327842202</v>
+        <v>1418553.982703346</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.177298355388465e-06</v>
+        <v>2.025519695818465e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.64274691358025</v>
       </c>
       <c r="AH10" t="n">
-        <v>1169822.52251837</v>
+        <v>1283169.181547157</v>
       </c>
     </row>
     <row r="11">
@@ -16013,28 +16013,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>933.4710766757703</v>
+        <v>1025.052435085915</v>
       </c>
       <c r="AB11" t="n">
-        <v>1277.216308945224</v>
+        <v>1402.521963806368</v>
       </c>
       <c r="AC11" t="n">
-        <v>1155.320577003839</v>
+        <v>1268.667236032627</v>
       </c>
       <c r="AD11" t="n">
-        <v>933471.0766757703</v>
+        <v>1025052.435085915</v>
       </c>
       <c r="AE11" t="n">
-        <v>1277216.308945224</v>
+        <v>1402521.963806368</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.184190068069784e-06</v>
+        <v>2.037376757972712e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.54243827160494</v>
       </c>
       <c r="AH11" t="n">
-        <v>1155320.577003839</v>
+        <v>1268667.236032627</v>
       </c>
     </row>
     <row r="12">
@@ -16119,28 +16119,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>923.8050563315057</v>
+        <v>1015.215822541058</v>
       </c>
       <c r="AB12" t="n">
-        <v>1263.99083347548</v>
+        <v>1389.063076561777</v>
       </c>
       <c r="AC12" t="n">
-        <v>1143.357322350856</v>
+        <v>1256.492846096993</v>
       </c>
       <c r="AD12" t="n">
-        <v>923805.0563315058</v>
+        <v>1015215.822541058</v>
       </c>
       <c r="AE12" t="n">
-        <v>1263990.83347548</v>
+        <v>1389063.076561777</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.188766596022222e-06</v>
+        <v>2.045250588309517e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.47299382716049</v>
       </c>
       <c r="AH12" t="n">
-        <v>1143357.322350856</v>
+        <v>1256492.846096993</v>
       </c>
     </row>
     <row r="13">
@@ -16225,28 +16225,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>908.3749334644235</v>
+        <v>999.7856996739761</v>
       </c>
       <c r="AB13" t="n">
-        <v>1242.87865863976</v>
+        <v>1367.950901726058</v>
       </c>
       <c r="AC13" t="n">
-        <v>1124.260063850334</v>
+        <v>1237.395587596471</v>
       </c>
       <c r="AD13" t="n">
-        <v>908374.9334644235</v>
+        <v>999785.6996739761</v>
       </c>
       <c r="AE13" t="n">
-        <v>1242878.65863976</v>
+        <v>1367950.901726058</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.196196723756769e-06</v>
+        <v>2.058033983444565e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.36496913580247</v>
       </c>
       <c r="AH13" t="n">
-        <v>1124260.063850334</v>
+        <v>1237395.587596471</v>
       </c>
     </row>
     <row r="14">
@@ -16331,28 +16331,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>900.0611265443798</v>
+        <v>991.4718927539324</v>
       </c>
       <c r="AB14" t="n">
-        <v>1231.503341232482</v>
+        <v>1356.575584318779</v>
       </c>
       <c r="AC14" t="n">
-        <v>1113.970390771048</v>
+        <v>1227.105914517184</v>
       </c>
       <c r="AD14" t="n">
-        <v>900061.1265443799</v>
+        <v>991471.8927539324</v>
       </c>
       <c r="AE14" t="n">
-        <v>1231503.341232482</v>
+        <v>1356575.584318779</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.199211848054847e-06</v>
+        <v>2.063221448137048e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.32253086419753</v>
       </c>
       <c r="AH14" t="n">
-        <v>1113970.390771048</v>
+        <v>1227105.914517184</v>
       </c>
     </row>
     <row r="15">
@@ -16437,28 +16437,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>890.6797364612061</v>
+        <v>982.0905026707588</v>
       </c>
       <c r="AB15" t="n">
-        <v>1218.667309442963</v>
+        <v>1343.73955252926</v>
       </c>
       <c r="AC15" t="n">
-        <v>1102.359411840037</v>
+        <v>1215.494935586174</v>
       </c>
       <c r="AD15" t="n">
-        <v>890679.7364612061</v>
+        <v>982090.5026707589</v>
       </c>
       <c r="AE15" t="n">
-        <v>1218667.309442963</v>
+        <v>1343739.55252926</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.202173130847601e-06</v>
+        <v>2.068316279531451e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.2800925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>1102359.411840037</v>
+        <v>1215494.935586174</v>
       </c>
     </row>
     <row r="16">
@@ -16543,28 +16543,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>880.6155553976503</v>
+        <v>972.0263216072026</v>
       </c>
       <c r="AB16" t="n">
-        <v>1204.897052911473</v>
+        <v>1329.96929599777</v>
       </c>
       <c r="AC16" t="n">
-        <v>1089.903369265236</v>
+        <v>1203.038893011373</v>
       </c>
       <c r="AD16" t="n">
-        <v>880615.5553976502</v>
+        <v>972026.3216072026</v>
       </c>
       <c r="AE16" t="n">
-        <v>1204897.052911473</v>
+        <v>1329969.29599777</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.205511304177615e-06</v>
+        <v>2.074059544012414e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.22993827160494</v>
       </c>
       <c r="AH16" t="n">
-        <v>1089903.369265236</v>
+        <v>1203038.893011373</v>
       </c>
     </row>
     <row r="17">
@@ -16649,28 +16649,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>869.7118038007321</v>
+        <v>961.1225700102848</v>
       </c>
       <c r="AB17" t="n">
-        <v>1189.978058936999</v>
+        <v>1315.050302023297</v>
       </c>
       <c r="AC17" t="n">
-        <v>1076.408223136747</v>
+        <v>1189.543746882884</v>
       </c>
       <c r="AD17" t="n">
-        <v>869711.8038007321</v>
+        <v>961122.5700102848</v>
       </c>
       <c r="AE17" t="n">
-        <v>1189978.058936999</v>
+        <v>1315050.302023296</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.209549417076825e-06</v>
+        <v>2.081007041368418e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.17206790123457</v>
       </c>
       <c r="AH17" t="n">
-        <v>1076408.223136747</v>
+        <v>1189543.746882884</v>
       </c>
     </row>
     <row r="18">
@@ -16755,28 +16755,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>858.6056985379234</v>
+        <v>940.0114399666032</v>
       </c>
       <c r="AB18" t="n">
-        <v>1174.782195749641</v>
+        <v>1286.165122540206</v>
       </c>
       <c r="AC18" t="n">
-        <v>1062.662631804462</v>
+        <v>1163.415328389055</v>
       </c>
       <c r="AD18" t="n">
-        <v>858605.6985379234</v>
+        <v>940011.4399666032</v>
       </c>
       <c r="AE18" t="n">
-        <v>1174782.19574964</v>
+        <v>1286165.122540206</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.2113800282578e-06</v>
+        <v>2.08415657350314e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.14891975308642</v>
       </c>
       <c r="AH18" t="n">
-        <v>1062662.631804462</v>
+        <v>1163415.328389055</v>
       </c>
     </row>
     <row r="19">
@@ -16861,28 +16861,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>848.9876712745663</v>
+        <v>930.393412703246</v>
       </c>
       <c r="AB19" t="n">
-        <v>1161.622386530499</v>
+        <v>1273.005313321065</v>
       </c>
       <c r="AC19" t="n">
-        <v>1050.758776307287</v>
+        <v>1151.51147289188</v>
       </c>
       <c r="AD19" t="n">
-        <v>848987.6712745663</v>
+        <v>930393.412703246</v>
       </c>
       <c r="AE19" t="n">
-        <v>1161622.386530499</v>
+        <v>1273005.313321065</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.214287469545232e-06</v>
+        <v>2.089158771599463e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.10648148148148</v>
       </c>
       <c r="AH19" t="n">
-        <v>1050758.776307287</v>
+        <v>1151511.47289188</v>
       </c>
     </row>
     <row r="20">
@@ -16967,28 +16967,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>845.9926796603698</v>
+        <v>927.3984210890496</v>
       </c>
       <c r="AB20" t="n">
-        <v>1157.524506874251</v>
+        <v>1268.907433664816</v>
       </c>
       <c r="AC20" t="n">
-        <v>1047.051992534021</v>
+        <v>1147.804689118614</v>
       </c>
       <c r="AD20" t="n">
-        <v>845992.6796603699</v>
+        <v>927398.4210890497</v>
       </c>
       <c r="AE20" t="n">
-        <v>1157524.506874251</v>
+        <v>1268907.433664816</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.214233628039909e-06</v>
+        <v>2.089066138301383e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.10648148148148</v>
       </c>
       <c r="AH20" t="n">
-        <v>1047051.992534021</v>
+        <v>1147804.689118614</v>
       </c>
     </row>
     <row r="21">
@@ -17073,28 +17073,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>843.7293941689045</v>
+        <v>925.1351355975843</v>
       </c>
       <c r="AB21" t="n">
-        <v>1154.427779815719</v>
+        <v>1265.810706606285</v>
       </c>
       <c r="AC21" t="n">
-        <v>1044.250812759671</v>
+        <v>1145.003509344265</v>
       </c>
       <c r="AD21" t="n">
-        <v>843729.3941689045</v>
+        <v>925135.1355975843</v>
       </c>
       <c r="AE21" t="n">
-        <v>1154427.779815719</v>
+        <v>1265810.706606285</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.215956556210239e-06</v>
+        <v>2.092030403839944e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1044250.812759671</v>
+        <v>1145003.509344265</v>
       </c>
     </row>
     <row r="22">
@@ -17179,28 +17179,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>847.0937307206087</v>
+        <v>928.4994721492884</v>
       </c>
       <c r="AB22" t="n">
-        <v>1159.031013509814</v>
+        <v>1270.413940300379</v>
       </c>
       <c r="AC22" t="n">
-        <v>1048.414720290681</v>
+        <v>1149.167416875275</v>
       </c>
       <c r="AD22" t="n">
-        <v>847093.7307206087</v>
+        <v>928499.4721492884</v>
       </c>
       <c r="AE22" t="n">
-        <v>1159031.013509814</v>
+        <v>1270413.940300379</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.215848873199593e-06</v>
+        <v>2.091845137243784e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1048414.720290681</v>
+        <v>1149167.416875275</v>
       </c>
     </row>
   </sheetData>
@@ -17476,28 +17476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.5622838945397</v>
+        <v>703.5664465231604</v>
       </c>
       <c r="AB2" t="n">
-        <v>844.9759617496252</v>
+        <v>962.6506512939753</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.3326418914509</v>
+        <v>870.7766242231523</v>
       </c>
       <c r="AD2" t="n">
-        <v>617562.2838945397</v>
+        <v>703566.4465231603</v>
       </c>
       <c r="AE2" t="n">
-        <v>844975.9617496252</v>
+        <v>962650.6512939753</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.290185285959734e-06</v>
+        <v>2.586383321243729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.26697530864197</v>
       </c>
       <c r="AH2" t="n">
-        <v>764332.6418914509</v>
+        <v>870776.6242231523</v>
       </c>
     </row>
     <row r="3">
@@ -17582,28 +17582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.9884717312737</v>
+        <v>588.5457510775652</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.1569702430817</v>
+        <v>805.274261430359</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.4304102760518</v>
+        <v>728.4200161289691</v>
       </c>
       <c r="AD3" t="n">
-        <v>510988.4717312737</v>
+        <v>588545.7510775652</v>
       </c>
       <c r="AE3" t="n">
-        <v>699156.9702430817</v>
+        <v>805274.2614303591</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408874857789022e-06</v>
+        <v>2.82431560300625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.64660493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>632430.4102760518</v>
+        <v>728420.0161289691</v>
       </c>
     </row>
     <row r="4">
@@ -17688,28 +17688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.1647444570012</v>
+        <v>583.7220238032928</v>
       </c>
       <c r="AB4" t="n">
-        <v>692.556933778594</v>
+        <v>798.6742249658713</v>
       </c>
       <c r="AC4" t="n">
-        <v>626.4602720285255</v>
+        <v>722.4498778814428</v>
       </c>
       <c r="AD4" t="n">
-        <v>506164.7444570012</v>
+        <v>583722.0238032928</v>
       </c>
       <c r="AE4" t="n">
-        <v>692556.933778594</v>
+        <v>798674.2249658713</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.416993688435325e-06</v>
+        <v>2.840591101107269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.54243827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>626460.2720285256</v>
+        <v>722449.8778814428</v>
       </c>
     </row>
   </sheetData>
@@ -17985,28 +17985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1553.245216332339</v>
+        <v>1690.474059043605</v>
       </c>
       <c r="AB2" t="n">
-        <v>2125.218629328646</v>
+        <v>2312.981186035463</v>
       </c>
       <c r="AC2" t="n">
-        <v>1922.390746108598</v>
+        <v>2092.233507929721</v>
       </c>
       <c r="AD2" t="n">
-        <v>1553245.216332339</v>
+        <v>1690474.059043605</v>
       </c>
       <c r="AE2" t="n">
-        <v>2125218.629328646</v>
+        <v>2312981.186035463</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.385804296455705e-07</v>
+        <v>1.485188253214325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.75231481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1922390.746108599</v>
+        <v>2092233.507929721</v>
       </c>
     </row>
     <row r="3">
@@ -18091,28 +18091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1089.074715218493</v>
+        <v>1187.131981315622</v>
       </c>
       <c r="AB3" t="n">
-        <v>1490.12007194742</v>
+        <v>1624.28634940278</v>
       </c>
       <c r="AC3" t="n">
-        <v>1347.905103677414</v>
+        <v>1469.266739915987</v>
       </c>
       <c r="AD3" t="n">
-        <v>1089074.715218493</v>
+        <v>1187131.981315622</v>
       </c>
       <c r="AE3" t="n">
-        <v>1490120.07194742</v>
+        <v>1624286.34940278</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.055656386268327e-06</v>
+        <v>1.869645902634601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.45910493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>1347905.103677414</v>
+        <v>1469266.739915987</v>
       </c>
     </row>
     <row r="4">
@@ -18197,28 +18197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>973.9404978960722</v>
+        <v>1062.268853103458</v>
       </c>
       <c r="AB4" t="n">
-        <v>1332.588356443699</v>
+        <v>1453.443108810456</v>
       </c>
       <c r="AC4" t="n">
-        <v>1205.407994004217</v>
+        <v>1314.7285384258</v>
       </c>
       <c r="AD4" t="n">
-        <v>973940.4978960722</v>
+        <v>1062268.853103458</v>
       </c>
       <c r="AE4" t="n">
-        <v>1332588.356443699</v>
+        <v>1453443.108810456</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.135478540508671e-06</v>
+        <v>2.011016869131072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.02006172839506</v>
       </c>
       <c r="AH4" t="n">
-        <v>1205407.994004217</v>
+        <v>1314728.5384258</v>
       </c>
     </row>
     <row r="5">
@@ -18303,28 +18303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>914.6226978745023</v>
+        <v>1002.865712227316</v>
       </c>
       <c r="AB5" t="n">
-        <v>1251.427125537543</v>
+        <v>1372.165110782102</v>
       </c>
       <c r="AC5" t="n">
-        <v>1131.992677065241</v>
+        <v>1241.207598454886</v>
       </c>
       <c r="AD5" t="n">
-        <v>914622.6978745023</v>
+        <v>1002865.712227316</v>
       </c>
       <c r="AE5" t="n">
-        <v>1251427.125537543</v>
+        <v>1372165.110782102</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.175669498955071e-06</v>
+        <v>2.082198043005171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.36805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1131992.677065241</v>
+        <v>1241207.598454886</v>
       </c>
     </row>
     <row r="6">
@@ -18409,28 +18409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>873.181983848862</v>
+        <v>971.1538195828682</v>
       </c>
       <c r="AB6" t="n">
-        <v>1194.72611237239</v>
+        <v>1328.775500236003</v>
       </c>
       <c r="AC6" t="n">
-        <v>1080.703129016198</v>
+        <v>1201.959031441606</v>
       </c>
       <c r="AD6" t="n">
-        <v>873181.983848862</v>
+        <v>971153.8195828683</v>
       </c>
       <c r="AE6" t="n">
-        <v>1194726.11237239</v>
+        <v>1328775.500236003</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.200466984458908e-06</v>
+        <v>2.12611623245674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.98996913580247</v>
       </c>
       <c r="AH6" t="n">
-        <v>1080703.129016198</v>
+        <v>1201959.031441606</v>
       </c>
     </row>
     <row r="7">
@@ -18515,28 +18515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>848.7383987901362</v>
+        <v>937.0666644889708</v>
       </c>
       <c r="AB7" t="n">
-        <v>1161.281320920176</v>
+        <v>1282.135950817384</v>
       </c>
       <c r="AC7" t="n">
-        <v>1050.450261520125</v>
+        <v>1159.770695160481</v>
       </c>
       <c r="AD7" t="n">
-        <v>848738.3987901362</v>
+        <v>937066.6644889708</v>
       </c>
       <c r="AE7" t="n">
-        <v>1161281.320920176</v>
+        <v>1282135.950817384</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.218659270663755e-06</v>
+        <v>2.158336123137913e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.7199074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1050450.261520125</v>
+        <v>1159770.695160481</v>
       </c>
     </row>
     <row r="8">
@@ -18621,28 +18621,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>829.8798984953996</v>
+        <v>918.2081641942343</v>
       </c>
       <c r="AB8" t="n">
-        <v>1135.478288838603</v>
+        <v>1256.332918735811</v>
       </c>
       <c r="AC8" t="n">
-        <v>1027.109834605633</v>
+        <v>1136.43026824599</v>
       </c>
       <c r="AD8" t="n">
-        <v>829879.8984953996</v>
+        <v>918208.1641942343</v>
       </c>
       <c r="AE8" t="n">
-        <v>1135478.288838603</v>
+        <v>1256332.918735811</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.230918072752559e-06</v>
+        <v>2.180047372550765e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.54629629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>1027109.834605633</v>
+        <v>1136430.26824599</v>
       </c>
     </row>
     <row r="9">
@@ -18727,28 +18727,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>810.1735936766469</v>
+        <v>898.3312671748891</v>
       </c>
       <c r="AB9" t="n">
-        <v>1108.515253204774</v>
+        <v>1229.136471327135</v>
       </c>
       <c r="AC9" t="n">
-        <v>1002.720113249839</v>
+        <v>1111.829411607545</v>
       </c>
       <c r="AD9" t="n">
-        <v>810173.5936766468</v>
+        <v>898331.2671748891</v>
       </c>
       <c r="AE9" t="n">
-        <v>1108515.253204774</v>
+        <v>1229136.471327135</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.241497586883994e-06</v>
+        <v>2.198784478208432e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.39583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1002720.113249839</v>
+        <v>1111829.411607545</v>
       </c>
     </row>
     <row r="10">
@@ -18833,28 +18833,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>797.738913307245</v>
+        <v>885.8965868054872</v>
       </c>
       <c r="AB10" t="n">
-        <v>1091.501574943978</v>
+        <v>1212.122793066339</v>
       </c>
       <c r="AC10" t="n">
-        <v>987.3301965634057</v>
+        <v>1096.439494921111</v>
       </c>
       <c r="AD10" t="n">
-        <v>797738.913307245</v>
+        <v>885896.5868054873</v>
       </c>
       <c r="AE10" t="n">
-        <v>1091501.574943978</v>
+        <v>1212122.793066339</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.247934857387247e-06</v>
+        <v>2.210185362603309e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.3070987654321</v>
       </c>
       <c r="AH10" t="n">
-        <v>987330.1965634057</v>
+        <v>1096439.494921112</v>
       </c>
     </row>
     <row r="11">
@@ -18939,28 +18939,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>784.1354504134767</v>
+        <v>872.293123911719</v>
       </c>
       <c r="AB11" t="n">
-        <v>1072.888716870297</v>
+        <v>1193.509934992658</v>
       </c>
       <c r="AC11" t="n">
-        <v>970.4937235409667</v>
+        <v>1079.603021898673</v>
       </c>
       <c r="AD11" t="n">
-        <v>784135.4504134768</v>
+        <v>872293.1239117191</v>
       </c>
       <c r="AE11" t="n">
-        <v>1072888.716870297</v>
+        <v>1193509.934992658</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.253644436442306e-06</v>
+        <v>2.220297451370938e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.22608024691358</v>
       </c>
       <c r="AH11" t="n">
-        <v>970493.7235409667</v>
+        <v>1079603.021898672</v>
       </c>
     </row>
     <row r="12">
@@ -19045,28 +19045,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>769.3740974284308</v>
+        <v>847.8882008915015</v>
       </c>
       <c r="AB12" t="n">
-        <v>1052.691582491225</v>
+        <v>1160.11804264718</v>
       </c>
       <c r="AC12" t="n">
-        <v>952.2241753201769</v>
+        <v>1049.398004892832</v>
       </c>
       <c r="AD12" t="n">
-        <v>769374.0974284308</v>
+        <v>847888.2008915015</v>
       </c>
       <c r="AE12" t="n">
-        <v>1052691.582491225</v>
+        <v>1160118.04264718</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.258738276579664e-06</v>
+        <v>2.229319020761667e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.15663580246914</v>
       </c>
       <c r="AH12" t="n">
-        <v>952224.1753201769</v>
+        <v>1049398.004892832</v>
       </c>
     </row>
     <row r="13">
@@ -19151,28 +19151,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>757.4679980268186</v>
+        <v>835.9821014898895</v>
       </c>
       <c r="AB13" t="n">
-        <v>1036.401132029904</v>
+        <v>1143.82759218586</v>
       </c>
       <c r="AC13" t="n">
-        <v>937.4884625870942</v>
+        <v>1034.662292159749</v>
       </c>
       <c r="AD13" t="n">
-        <v>757467.9980268186</v>
+        <v>835982.1014898894</v>
       </c>
       <c r="AE13" t="n">
-        <v>1036401.132029904</v>
+        <v>1143827.59218586</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.262992472738336e-06</v>
+        <v>2.236853518274803e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.09876543209877</v>
       </c>
       <c r="AH13" t="n">
-        <v>937488.4625870942</v>
+        <v>1034662.292159749</v>
       </c>
     </row>
     <row r="14">
@@ -19257,28 +19257,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>754.0608832362097</v>
+        <v>832.5749866992805</v>
       </c>
       <c r="AB14" t="n">
-        <v>1031.739367262097</v>
+        <v>1139.165827418053</v>
       </c>
       <c r="AC14" t="n">
-        <v>933.2716101058986</v>
+        <v>1030.445439678553</v>
       </c>
       <c r="AD14" t="n">
-        <v>754060.8832362097</v>
+        <v>832574.9866992806</v>
       </c>
       <c r="AE14" t="n">
-        <v>1031739.367262097</v>
+        <v>1139165.827418053</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.264671760695706e-06</v>
+        <v>2.239827662029988e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.07561728395062</v>
       </c>
       <c r="AH14" t="n">
-        <v>933271.6101058986</v>
+        <v>1030445.439678553</v>
       </c>
     </row>
     <row r="15">
@@ -19363,28 +19363,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>757.0342469312656</v>
+        <v>835.5483503943362</v>
       </c>
       <c r="AB15" t="n">
-        <v>1035.807654645221</v>
+        <v>1143.234114801176</v>
       </c>
       <c r="AC15" t="n">
-        <v>936.9516258510541</v>
+        <v>1034.125455423709</v>
       </c>
       <c r="AD15" t="n">
-        <v>757034.2469312656</v>
+        <v>835548.3503943363</v>
       </c>
       <c r="AE15" t="n">
-        <v>1035807.654645221</v>
+        <v>1143234.114801176</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.264447855634723e-06</v>
+        <v>2.239431109529297e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.07947530864198</v>
       </c>
       <c r="AH15" t="n">
-        <v>936951.6258510541</v>
+        <v>1034125.455423709</v>
       </c>
     </row>
     <row r="16">
@@ -19469,28 +19469,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>759.4583262401015</v>
+        <v>837.9724297031723</v>
       </c>
       <c r="AB16" t="n">
-        <v>1039.124386898402</v>
+        <v>1146.550847054357</v>
       </c>
       <c r="AC16" t="n">
-        <v>939.9518138330543</v>
+        <v>1037.125643405709</v>
       </c>
       <c r="AD16" t="n">
-        <v>759458.3262401016</v>
+        <v>837972.4297031723</v>
       </c>
       <c r="AE16" t="n">
-        <v>1039124.386898402</v>
+        <v>1146550.847054357</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.264391879369477e-06</v>
+        <v>2.239331971404123e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.07947530864198</v>
       </c>
       <c r="AH16" t="n">
-        <v>939951.8138330543</v>
+        <v>1037125.643405709</v>
       </c>
     </row>
     <row r="17">
@@ -19575,28 +19575,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>762.5421348843848</v>
+        <v>841.0562383474554</v>
       </c>
       <c r="AB17" t="n">
-        <v>1043.343789933545</v>
+        <v>1150.770250089501</v>
       </c>
       <c r="AC17" t="n">
-        <v>943.7685229644934</v>
+        <v>1040.942352537148</v>
       </c>
       <c r="AD17" t="n">
-        <v>762542.1348843848</v>
+        <v>841056.2383474554</v>
       </c>
       <c r="AE17" t="n">
-        <v>1043343.789933545</v>
+        <v>1150770.250089501</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.264391879369477e-06</v>
+        <v>2.239331971404123e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.07947530864198</v>
       </c>
       <c r="AH17" t="n">
-        <v>943768.5229644934</v>
+        <v>1040942.352537148</v>
       </c>
     </row>
   </sheetData>
@@ -19872,28 +19872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1813.07181911167</v>
+        <v>1952.931910624636</v>
       </c>
       <c r="AB2" t="n">
-        <v>2480.72484999204</v>
+        <v>2672.087597391849</v>
       </c>
       <c r="AC2" t="n">
-        <v>2243.967952027994</v>
+        <v>2417.067307395267</v>
       </c>
       <c r="AD2" t="n">
-        <v>1813071.81911167</v>
+        <v>1952931.910624636</v>
       </c>
       <c r="AE2" t="n">
-        <v>2480724.84999204</v>
+        <v>2672087.597391849</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.703062810712926e-07</v>
+        <v>1.343346891656759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.46913580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>2243967.952027994</v>
+        <v>2417067.307395267</v>
       </c>
     </row>
     <row r="3">
@@ -19978,28 +19978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1216.506933263048</v>
+        <v>1326.360449694538</v>
       </c>
       <c r="AB3" t="n">
-        <v>1664.478454588666</v>
+        <v>1814.784882165334</v>
       </c>
       <c r="AC3" t="n">
-        <v>1505.622966992906</v>
+        <v>1641.584360078053</v>
       </c>
       <c r="AD3" t="n">
-        <v>1216506.933263048</v>
+        <v>1326360.449694538</v>
       </c>
       <c r="AE3" t="n">
-        <v>1664478.454588666</v>
+        <v>1814784.882165333</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.000822286720466e-06</v>
+        <v>1.745346677034713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.14197530864197</v>
       </c>
       <c r="AH3" t="n">
-        <v>1505622.966992906</v>
+        <v>1641584.360078053</v>
       </c>
     </row>
     <row r="4">
@@ -20084,28 +20084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1069.309711349436</v>
+        <v>1169.1610360871</v>
       </c>
       <c r="AB4" t="n">
-        <v>1463.076721683346</v>
+        <v>1599.697709318967</v>
       </c>
       <c r="AC4" t="n">
-        <v>1323.442732806962</v>
+        <v>1447.0248051314</v>
       </c>
       <c r="AD4" t="n">
-        <v>1069309.711349436</v>
+        <v>1169161.0360871</v>
       </c>
       <c r="AE4" t="n">
-        <v>1463076.721683346</v>
+        <v>1599697.709318967</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.086216866971659e-06</v>
+        <v>1.894267368405989e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1323442.732806962</v>
+        <v>1447024.8051314</v>
       </c>
     </row>
     <row r="5">
@@ -20190,28 +20190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>997.9209601243693</v>
+        <v>1097.857536208054</v>
       </c>
       <c r="AB5" t="n">
-        <v>1365.399482807783</v>
+        <v>1502.137115096054</v>
       </c>
       <c r="AC5" t="n">
-        <v>1235.087672518817</v>
+        <v>1358.775257093968</v>
       </c>
       <c r="AD5" t="n">
-        <v>997920.9601243694</v>
+        <v>1097857.536208054</v>
       </c>
       <c r="AE5" t="n">
-        <v>1365399.482807783</v>
+        <v>1502137.115096054</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.132012932809646e-06</v>
+        <v>1.974131708351407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.69212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1235087.672518817</v>
+        <v>1358775.257093968</v>
       </c>
     </row>
     <row r="6">
@@ -20296,28 +20296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>959.7247999762662</v>
+        <v>1049.659273874677</v>
       </c>
       <c r="AB6" t="n">
-        <v>1313.137811397491</v>
+        <v>1436.190126214263</v>
       </c>
       <c r="AC6" t="n">
-        <v>1187.813781678207</v>
+        <v>1299.122156273875</v>
       </c>
       <c r="AD6" t="n">
-        <v>959724.7999762662</v>
+        <v>1049659.273874677</v>
       </c>
       <c r="AE6" t="n">
-        <v>1313137.811397491</v>
+        <v>1436190.126214263</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.161026248771676e-06</v>
+        <v>2.024728397969522e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.22530864197531</v>
       </c>
       <c r="AH6" t="n">
-        <v>1187813.781678207</v>
+        <v>1299122.156273875</v>
       </c>
     </row>
     <row r="7">
@@ -20402,28 +20402,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>925.888731603309</v>
+        <v>1025.739966832422</v>
       </c>
       <c r="AB7" t="n">
-        <v>1266.841809907627</v>
+        <v>1403.462675073699</v>
       </c>
       <c r="AC7" t="n">
-        <v>1145.936205593689</v>
+        <v>1269.518167136901</v>
       </c>
       <c r="AD7" t="n">
-        <v>925888.731603309</v>
+        <v>1025739.966832422</v>
       </c>
       <c r="AE7" t="n">
-        <v>1266841.809907627</v>
+        <v>1403462.675073699</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.178138072174613e-06</v>
+        <v>2.054569923793438e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.9591049382716</v>
       </c>
       <c r="AH7" t="n">
-        <v>1145936.205593689</v>
+        <v>1269518.167136901</v>
       </c>
     </row>
     <row r="8">
@@ -20508,28 +20508,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>906.2549807744601</v>
+        <v>996.2747060188908</v>
       </c>
       <c r="AB8" t="n">
-        <v>1239.978045843641</v>
+        <v>1363.147005313062</v>
       </c>
       <c r="AC8" t="n">
-        <v>1121.636281468441</v>
+        <v>1233.050168314821</v>
       </c>
       <c r="AD8" t="n">
-        <v>906254.9807744601</v>
+        <v>996274.7060188908</v>
       </c>
       <c r="AE8" t="n">
-        <v>1239978.045843641</v>
+        <v>1363147.005313062</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.191739777956434e-06</v>
+        <v>2.078290110986808e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.75462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1121636.281468441</v>
+        <v>1233050.168314821</v>
       </c>
     </row>
     <row r="9">
@@ -20614,28 +20614,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>889.477278695484</v>
+        <v>979.4970039399147</v>
       </c>
       <c r="AB9" t="n">
-        <v>1217.022053679209</v>
+        <v>1340.19101314863</v>
       </c>
       <c r="AC9" t="n">
-        <v>1100.871176977245</v>
+        <v>1212.285063823625</v>
       </c>
       <c r="AD9" t="n">
-        <v>889477.2786954839</v>
+        <v>979497.0039399147</v>
       </c>
       <c r="AE9" t="n">
-        <v>1217022.053679209</v>
+        <v>1340191.013148631</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.20227013081978e-06</v>
+        <v>2.096654126878449e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.60030864197531</v>
       </c>
       <c r="AH9" t="n">
-        <v>1100871.176977245</v>
+        <v>1212285.063823625</v>
       </c>
     </row>
     <row r="10">
@@ -20720,28 +20720,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>875.31166062819</v>
+        <v>965.1607936720285</v>
       </c>
       <c r="AB10" t="n">
-        <v>1197.640030096575</v>
+        <v>1320.575577791149</v>
       </c>
       <c r="AC10" t="n">
-        <v>1083.338946522496</v>
+        <v>1194.541698086225</v>
       </c>
       <c r="AD10" t="n">
-        <v>875311.66062819</v>
+        <v>965160.7936720285</v>
       </c>
       <c r="AE10" t="n">
-        <v>1197640.030096575</v>
+        <v>1320575.577791149</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.210167895467289e-06</v>
+        <v>2.11042713879718e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.48456790123457</v>
       </c>
       <c r="AH10" t="n">
-        <v>1083338.946522496</v>
+        <v>1194541.698086225</v>
       </c>
     </row>
     <row r="11">
@@ -20826,28 +20826,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>861.6005865017815</v>
+        <v>951.4497195456202</v>
       </c>
       <c r="AB11" t="n">
-        <v>1178.879933586923</v>
+        <v>1301.815481281498</v>
       </c>
       <c r="AC11" t="n">
-        <v>1066.369287293765</v>
+        <v>1177.572038857494</v>
       </c>
       <c r="AD11" t="n">
-        <v>861600.5865017816</v>
+        <v>951449.7195456201</v>
       </c>
       <c r="AE11" t="n">
-        <v>1178879.933586923</v>
+        <v>1301815.481281498</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.21680421159471e-06</v>
+        <v>2.122000294645557e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.38811728395062</v>
       </c>
       <c r="AH11" t="n">
-        <v>1066369.287293765</v>
+        <v>1177572.038857494</v>
       </c>
     </row>
     <row r="12">
@@ -20932,28 +20932,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>847.3152012703775</v>
+        <v>937.164334314216</v>
       </c>
       <c r="AB12" t="n">
-        <v>1159.334039286599</v>
+        <v>1282.269586981173</v>
       </c>
       <c r="AC12" t="n">
-        <v>1048.688825712629</v>
+        <v>1159.891577276358</v>
       </c>
       <c r="AD12" t="n">
-        <v>847315.2012703775</v>
+        <v>937164.334314216</v>
       </c>
       <c r="AE12" t="n">
-        <v>1159334.039286599</v>
+        <v>1282269.586981173</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.22360506448562e-06</v>
+        <v>2.133860388242242e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1048688.825712629</v>
+        <v>1159891.577276358</v>
       </c>
     </row>
     <row r="13">
@@ -21038,28 +21038,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>833.4242382807776</v>
+        <v>923.2733713246163</v>
       </c>
       <c r="AB13" t="n">
-        <v>1140.327810898192</v>
+        <v>1263.263358592767</v>
       </c>
       <c r="AC13" t="n">
-        <v>1031.496525086203</v>
+        <v>1142.699276649932</v>
       </c>
       <c r="AD13" t="n">
-        <v>833424.2382807776</v>
+        <v>923273.3713246163</v>
       </c>
       <c r="AE13" t="n">
-        <v>1140327.810898192</v>
+        <v>1263263.358592767</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.228157248275504e-06</v>
+        <v>2.141798999278733e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.22993827160494</v>
       </c>
       <c r="AH13" t="n">
-        <v>1031496.525086203</v>
+        <v>1142699.276649932</v>
       </c>
     </row>
     <row r="14">
@@ -21144,28 +21144,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>824.7915553468791</v>
+        <v>914.6406883907177</v>
       </c>
       <c r="AB14" t="n">
-        <v>1128.51619326094</v>
+        <v>1251.451740955515</v>
       </c>
       <c r="AC14" t="n">
-        <v>1020.81219165854</v>
+        <v>1132.014943222269</v>
       </c>
       <c r="AD14" t="n">
-        <v>824791.5553468792</v>
+        <v>914640.6883907177</v>
       </c>
       <c r="AE14" t="n">
-        <v>1128516.19326094</v>
+        <v>1251451.740955515</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.231777057072279e-06</v>
+        <v>2.148111629741485e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.17978395061728</v>
       </c>
       <c r="AH14" t="n">
-        <v>1020812.19165854</v>
+        <v>1132014.943222269</v>
       </c>
     </row>
     <row r="15">
@@ -21250,28 +21250,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>816.7773364689853</v>
+        <v>896.7949595281416</v>
       </c>
       <c r="AB15" t="n">
-        <v>1117.550785429823</v>
+        <v>1227.034427427745</v>
       </c>
       <c r="AC15" t="n">
-        <v>1010.893306960778</v>
+        <v>1109.927983827676</v>
       </c>
       <c r="AD15" t="n">
-        <v>816777.3364689853</v>
+        <v>896794.9595281415</v>
       </c>
       <c r="AE15" t="n">
-        <v>1117550.785429823</v>
+        <v>1227034.427427745</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.234464490875945e-06</v>
+        <v>2.152798279630497e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.14120370370371</v>
       </c>
       <c r="AH15" t="n">
-        <v>1010893.306960778</v>
+        <v>1109927.983827676</v>
       </c>
     </row>
     <row r="16">
@@ -21356,28 +21356,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>802.6551470288732</v>
+        <v>882.6727700880294</v>
       </c>
       <c r="AB16" t="n">
-        <v>1098.228182810834</v>
+        <v>1207.711824808757</v>
       </c>
       <c r="AC16" t="n">
-        <v>993.4148264163026</v>
+        <v>1092.4495032832</v>
       </c>
       <c r="AD16" t="n">
-        <v>802655.1470288732</v>
+        <v>882672.7700880294</v>
       </c>
       <c r="AE16" t="n">
-        <v>1098228.182810834</v>
+        <v>1207711.824808757</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.238084299672721e-06</v>
+        <v>2.159110910093249e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.09104938271605</v>
       </c>
       <c r="AH16" t="n">
-        <v>993414.8264163026</v>
+        <v>1092449.5032832</v>
       </c>
     </row>
     <row r="17">
@@ -21462,28 +21462,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>796.6780569434138</v>
+        <v>876.6956800025699</v>
       </c>
       <c r="AB17" t="n">
-        <v>1090.050064465304</v>
+        <v>1199.533706463227</v>
       </c>
       <c r="AC17" t="n">
-        <v>986.0172162076087</v>
+        <v>1085.051893074506</v>
       </c>
       <c r="AD17" t="n">
-        <v>796678.0569434138</v>
+        <v>876695.6800025699</v>
       </c>
       <c r="AE17" t="n">
-        <v>1090050.064465304</v>
+        <v>1199533.706463227</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.239510284956298e-06</v>
+        <v>2.161597703911908e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.07175925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>986017.2162076087</v>
+        <v>1085051.893074506</v>
       </c>
     </row>
     <row r="18">
@@ -21568,28 +21568,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>800.7161898066437</v>
+        <v>880.7338128657999</v>
       </c>
       <c r="AB18" t="n">
-        <v>1095.575215998624</v>
+        <v>1205.058857996547</v>
       </c>
       <c r="AC18" t="n">
-        <v>991.0150550331877</v>
+        <v>1090.049731900085</v>
       </c>
       <c r="AD18" t="n">
-        <v>800716.1898066436</v>
+        <v>880733.8128657999</v>
       </c>
       <c r="AE18" t="n">
-        <v>1095575.215998624</v>
+        <v>1205058.857996547</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.239071520253659e-06</v>
+        <v>2.16083253658309e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.07561728395062</v>
       </c>
       <c r="AH18" t="n">
-        <v>991015.0550331876</v>
+        <v>1090049.731900085</v>
       </c>
     </row>
     <row r="19">
@@ -21674,28 +21674,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>804.0517620519455</v>
+        <v>884.0693851111018</v>
       </c>
       <c r="AB19" t="n">
-        <v>1100.139093099708</v>
+        <v>1209.622735097631</v>
       </c>
       <c r="AC19" t="n">
-        <v>995.1433621091858</v>
+        <v>1094.178038976083</v>
       </c>
       <c r="AD19" t="n">
-        <v>804051.7620519456</v>
+        <v>884069.3851111018</v>
       </c>
       <c r="AE19" t="n">
-        <v>1100139.093099708</v>
+        <v>1209622.735097631</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.239016674665829e-06</v>
+        <v>2.160736890666988e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.07561728395062</v>
       </c>
       <c r="AH19" t="n">
-        <v>995143.3621091858</v>
+        <v>1094178.038976083</v>
       </c>
     </row>
   </sheetData>
@@ -21971,28 +21971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2427.17863901086</v>
+        <v>2592.406851991858</v>
       </c>
       <c r="AB2" t="n">
-        <v>3320.972893459105</v>
+        <v>3547.045423814019</v>
       </c>
       <c r="AC2" t="n">
-        <v>3004.023901521973</v>
+        <v>3208.520386874594</v>
       </c>
       <c r="AD2" t="n">
-        <v>2427178.63901086</v>
+        <v>2592406.851991858</v>
       </c>
       <c r="AE2" t="n">
-        <v>3320972.893459105</v>
+        <v>3547045.423814019</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.511931404958771e-07</v>
+        <v>1.106985180119763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.36188271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>3004023.901521973</v>
+        <v>3208520.386874594</v>
       </c>
     </row>
     <row r="3">
@@ -22077,28 +22077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1477.089593233247</v>
+        <v>1601.053356264867</v>
       </c>
       <c r="AB3" t="n">
-        <v>2021.019146055496</v>
+        <v>2190.631835530608</v>
       </c>
       <c r="AC3" t="n">
-        <v>1828.135915274145</v>
+        <v>1981.561007718658</v>
       </c>
       <c r="AD3" t="n">
-        <v>1477089.593233247</v>
+        <v>1601053.356264868</v>
       </c>
       <c r="AE3" t="n">
-        <v>2021019.146055496</v>
+        <v>2190631.835530608</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.028085373560432e-07</v>
+        <v>1.5347146786247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.62345679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>1828135.915274145</v>
+        <v>1981561.007718658</v>
       </c>
     </row>
     <row r="4">
@@ -22183,28 +22183,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1269.667939734362</v>
+        <v>1372.956941626835</v>
       </c>
       <c r="AB4" t="n">
-        <v>1737.2156889408</v>
+        <v>1878.540258119243</v>
       </c>
       <c r="AC4" t="n">
-        <v>1571.418261785822</v>
+        <v>1699.255012432153</v>
       </c>
       <c r="AD4" t="n">
-        <v>1269667.939734362</v>
+        <v>1372956.941626835</v>
       </c>
       <c r="AE4" t="n">
-        <v>1737215.6889408</v>
+        <v>1878540.258119243</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.000850135291038e-06</v>
+        <v>1.701378897272111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.4050925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1571418.261785822</v>
+        <v>1699255.012432153</v>
       </c>
     </row>
     <row r="5">
@@ -22289,28 +22289,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1175.964644762324</v>
+        <v>1279.168305800226</v>
       </c>
       <c r="AB5" t="n">
-        <v>1609.00670686244</v>
+        <v>1750.214508918685</v>
       </c>
       <c r="AC5" t="n">
-        <v>1455.445365014584</v>
+        <v>1583.176492628977</v>
       </c>
       <c r="AD5" t="n">
-        <v>1175964.644762324</v>
+        <v>1279168.305800226</v>
       </c>
       <c r="AE5" t="n">
-        <v>1609006.70686244</v>
+        <v>1750214.508918685</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.053364857295095e-06</v>
+        <v>1.790650444193403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.39043209876543</v>
       </c>
       <c r="AH5" t="n">
-        <v>1455445.365014584</v>
+        <v>1583176.492628976</v>
       </c>
     </row>
     <row r="6">
@@ -22395,28 +22395,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1119.10644533364</v>
+        <v>1222.395357717563</v>
       </c>
       <c r="AB6" t="n">
-        <v>1531.21080999739</v>
+        <v>1672.535256706285</v>
       </c>
       <c r="AC6" t="n">
-        <v>1385.074199359108</v>
+        <v>1512.910839224213</v>
       </c>
       <c r="AD6" t="n">
-        <v>1119106.44533364</v>
+        <v>1222395.357717562</v>
       </c>
       <c r="AE6" t="n">
-        <v>1531210.80999739</v>
+        <v>1672535.256706285</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.084439597029351e-06</v>
+        <v>1.843475442220417e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.83487654320988</v>
       </c>
       <c r="AH6" t="n">
-        <v>1385074.199359108</v>
+        <v>1512910.839224213</v>
       </c>
     </row>
     <row r="7">
@@ -22501,28 +22501,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1084.50458443741</v>
+        <v>1177.456161006033</v>
       </c>
       <c r="AB7" t="n">
-        <v>1483.867017392802</v>
+        <v>1611.047465188135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1342.248831873271</v>
+        <v>1457.291356229898</v>
       </c>
       <c r="AD7" t="n">
-        <v>1084504.58443741</v>
+        <v>1177456.161006033</v>
       </c>
       <c r="AE7" t="n">
-        <v>1483867.017392802</v>
+        <v>1611047.465188135</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.107626540817432e-06</v>
+        <v>1.882891709913487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1342248.831873271</v>
+        <v>1457291.356229898</v>
       </c>
     </row>
     <row r="8">
@@ -22607,28 +22607,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1061.509277106707</v>
+        <v>1154.46085367533</v>
       </c>
       <c r="AB8" t="n">
-        <v>1452.403823421573</v>
+        <v>1579.584271216906</v>
       </c>
       <c r="AC8" t="n">
-        <v>1313.788440975786</v>
+        <v>1428.830965332413</v>
       </c>
       <c r="AD8" t="n">
-        <v>1061509.277106707</v>
+        <v>1154460.85367533</v>
       </c>
       <c r="AE8" t="n">
-        <v>1452403.823421573</v>
+        <v>1579584.271216906</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.123137441570647e-06</v>
+        <v>1.909259213187618e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.18287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1313788.440975786</v>
+        <v>1428830.965332413</v>
       </c>
     </row>
     <row r="9">
@@ -22713,28 +22713,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1031.71533880009</v>
+        <v>1134.91891032944</v>
       </c>
       <c r="AB9" t="n">
-        <v>1411.638442614668</v>
+        <v>1552.846122201365</v>
       </c>
       <c r="AC9" t="n">
-        <v>1276.913650898521</v>
+        <v>1404.644667731686</v>
       </c>
       <c r="AD9" t="n">
-        <v>1031715.338800089</v>
+        <v>1134918.91032944</v>
       </c>
       <c r="AE9" t="n">
-        <v>1411638.442614668</v>
+        <v>1552846.122201364</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.135683801565568e-06</v>
+        <v>1.930587193651677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.98225308641975</v>
       </c>
       <c r="AH9" t="n">
-        <v>1276913.650898521</v>
+        <v>1404644.667731686</v>
       </c>
     </row>
     <row r="10">
@@ -22819,28 +22819,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1016.157381966556</v>
+        <v>1119.360953495906</v>
       </c>
       <c r="AB10" t="n">
-        <v>1390.351359706413</v>
+        <v>1531.55903929311</v>
       </c>
       <c r="AC10" t="n">
-        <v>1257.658177306422</v>
+        <v>1385.389194139587</v>
       </c>
       <c r="AD10" t="n">
-        <v>1016157.381966556</v>
+        <v>1119360.953495906</v>
       </c>
       <c r="AE10" t="n">
-        <v>1390351.359706413</v>
+        <v>1531559.03929311</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.145371497257849e-06</v>
+        <v>1.947055634263165e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.83179012345679</v>
       </c>
       <c r="AH10" t="n">
-        <v>1257658.177306422</v>
+        <v>1385389.194139587</v>
       </c>
     </row>
     <row r="11">
@@ -22925,28 +22925,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1002.706976442322</v>
+        <v>1095.743804356967</v>
       </c>
       <c r="AB11" t="n">
-        <v>1371.947921478145</v>
+        <v>1499.245013926128</v>
       </c>
       <c r="AC11" t="n">
-        <v>1241.011137393271</v>
+        <v>1356.15917400061</v>
       </c>
       <c r="AD11" t="n">
-        <v>1002706.976442322</v>
+        <v>1095743.804356967</v>
       </c>
       <c r="AE11" t="n">
-        <v>1371947.921478145</v>
+        <v>1499245.013926127</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.153312231431849e-06</v>
+        <v>1.96055435607586e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1241011.137393271</v>
+        <v>1356159.17400061</v>
       </c>
     </row>
     <row r="12">
@@ -23031,28 +23031,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>988.7146750843476</v>
+        <v>1081.751502998992</v>
       </c>
       <c r="AB12" t="n">
-        <v>1352.803037463394</v>
+        <v>1480.100129911377</v>
       </c>
       <c r="AC12" t="n">
-        <v>1223.693414238875</v>
+        <v>1338.841450846214</v>
       </c>
       <c r="AD12" t="n">
-        <v>988714.6750843476</v>
+        <v>1081751.502998992</v>
       </c>
       <c r="AE12" t="n">
-        <v>1352803.037463394</v>
+        <v>1480100.129911377</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.160723583327583e-06</v>
+        <v>1.973153163101043e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.59645061728395</v>
       </c>
       <c r="AH12" t="n">
-        <v>1223693.414238875</v>
+        <v>1338841.450846214</v>
       </c>
     </row>
     <row r="13">
@@ -23137,28 +23137,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>980.066209474962</v>
+        <v>1073.103037389606</v>
       </c>
       <c r="AB13" t="n">
-        <v>1340.969825273258</v>
+        <v>1468.266917721241</v>
       </c>
       <c r="AC13" t="n">
-        <v>1212.989547212148</v>
+        <v>1328.137583819487</v>
       </c>
       <c r="AD13" t="n">
-        <v>980066.209474962</v>
+        <v>1073103.037389606</v>
       </c>
       <c r="AE13" t="n">
-        <v>1340969.825273258</v>
+        <v>1468266.917721241</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.165593900287637e-06</v>
+        <v>1.981432379146162e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.52314814814815</v>
       </c>
       <c r="AH13" t="n">
-        <v>1212989.547212148</v>
+        <v>1328137.583819487</v>
       </c>
     </row>
     <row r="14">
@@ -23243,28 +23243,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>968.033034917353</v>
+        <v>1060.899270631405</v>
       </c>
       <c r="AB14" t="n">
-        <v>1324.505504977343</v>
+        <v>1451.569185650479</v>
       </c>
       <c r="AC14" t="n">
-        <v>1198.096558537456</v>
+        <v>1313.033459862144</v>
       </c>
       <c r="AD14" t="n">
-        <v>968033.034917353</v>
+        <v>1060899.270631405</v>
       </c>
       <c r="AE14" t="n">
-        <v>1324505.504977343</v>
+        <v>1451569.185650479</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.170993599525958e-06</v>
+        <v>1.990611509978795e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.44212962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>1198096.558537456</v>
+        <v>1313033.459862144</v>
       </c>
     </row>
     <row r="15">
@@ -23349,28 +23349,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>959.812154850597</v>
+        <v>1052.678390564649</v>
       </c>
       <c r="AB15" t="n">
-        <v>1313.257334190375</v>
+        <v>1440.321014863511</v>
       </c>
       <c r="AC15" t="n">
-        <v>1187.92189738349</v>
+        <v>1302.858798708178</v>
       </c>
       <c r="AD15" t="n">
-        <v>959812.154850597</v>
+        <v>1052678.390564649</v>
       </c>
       <c r="AE15" t="n">
-        <v>1313257.334190375</v>
+        <v>1440321.014863512</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.174222831423384e-06</v>
+        <v>1.996100990182624e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.39197530864197</v>
       </c>
       <c r="AH15" t="n">
-        <v>1187921.89738349</v>
+        <v>1302858.798708178</v>
       </c>
     </row>
     <row r="16">
@@ -23455,28 +23455,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>952.6493793709998</v>
+        <v>1045.515615085052</v>
       </c>
       <c r="AB16" t="n">
-        <v>1303.456908779838</v>
+        <v>1430.520589452974</v>
       </c>
       <c r="AC16" t="n">
-        <v>1179.056810819151</v>
+        <v>1293.993712143839</v>
       </c>
       <c r="AD16" t="n">
-        <v>952649.3793709998</v>
+        <v>1045515.615085052</v>
       </c>
       <c r="AE16" t="n">
-        <v>1303456.908779838</v>
+        <v>1430520.589452974</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.177399125092985e-06</v>
+        <v>2.001500478907703e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.34567901234568</v>
       </c>
       <c r="AH16" t="n">
-        <v>1179056.810819151</v>
+        <v>1293993.712143839</v>
       </c>
     </row>
     <row r="17">
@@ -23561,28 +23561,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>941.9483650191236</v>
+        <v>1034.814600733175</v>
       </c>
       <c r="AB17" t="n">
-        <v>1288.815308848167</v>
+        <v>1415.878989521303</v>
       </c>
       <c r="AC17" t="n">
-        <v>1165.812584635344</v>
+        <v>1280.749485960032</v>
       </c>
       <c r="AD17" t="n">
-        <v>941948.3650191235</v>
+        <v>1034814.600733176</v>
       </c>
       <c r="AE17" t="n">
-        <v>1288815.308848167</v>
+        <v>1415878.989521303</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.180998924585198e-06</v>
+        <v>2.007619899462792e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.29552469135803</v>
       </c>
       <c r="AH17" t="n">
-        <v>1165812.584635344</v>
+        <v>1280749.485960031</v>
       </c>
     </row>
     <row r="18">
@@ -23667,28 +23667,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>935.0339265153879</v>
+        <v>1027.90016222944</v>
       </c>
       <c r="AB18" t="n">
-        <v>1279.354669043858</v>
+        <v>1406.418349716994</v>
       </c>
       <c r="AC18" t="n">
-        <v>1157.254855015866</v>
+        <v>1272.191756340555</v>
       </c>
       <c r="AD18" t="n">
-        <v>935033.9265153878</v>
+        <v>1027900.16222944</v>
       </c>
       <c r="AE18" t="n">
-        <v>1279354.669043858</v>
+        <v>1406418.349716994</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.183010577242612e-06</v>
+        <v>2.011039575655341e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.26466049382716</v>
       </c>
       <c r="AH18" t="n">
-        <v>1157254.855015866</v>
+        <v>1272191.756340554</v>
       </c>
     </row>
     <row r="19">
@@ -23773,28 +23773,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>926.838157085156</v>
+        <v>1019.704392799208</v>
       </c>
       <c r="AB19" t="n">
-        <v>1268.140855737586</v>
+        <v>1395.204536410722</v>
       </c>
       <c r="AC19" t="n">
-        <v>1147.111272312859</v>
+        <v>1262.048173637547</v>
       </c>
       <c r="AD19" t="n">
-        <v>926838.1570851561</v>
+        <v>1019704.392799208</v>
       </c>
       <c r="AE19" t="n">
-        <v>1268140.855737586</v>
+        <v>1395204.536410722</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.184545785849585e-06</v>
+        <v>2.013649328539129e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.24151234567901</v>
       </c>
       <c r="AH19" t="n">
-        <v>1147111.27231286</v>
+        <v>1262048.173637547</v>
       </c>
     </row>
     <row r="20">
@@ -23879,28 +23879,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>918.4131084485</v>
+        <v>1011.279344162552</v>
       </c>
       <c r="AB20" t="n">
-        <v>1256.613332506</v>
+        <v>1383.677013179135</v>
       </c>
       <c r="AC20" t="n">
-        <v>1136.683919719515</v>
+        <v>1251.620821044203</v>
       </c>
       <c r="AD20" t="n">
-        <v>918413.1084485</v>
+        <v>1011279.344162552</v>
       </c>
       <c r="AE20" t="n">
-        <v>1256613.332506</v>
+        <v>1383677.013179136</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.187880894202665e-06</v>
+        <v>2.01931879170046e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.19521604938272</v>
       </c>
       <c r="AH20" t="n">
-        <v>1136683.919719515</v>
+        <v>1251620.821044203</v>
       </c>
     </row>
     <row r="21">
@@ -23985,28 +23985,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>912.4142576451511</v>
+        <v>1005.280493359203</v>
       </c>
       <c r="AB21" t="n">
-        <v>1248.405440186238</v>
+        <v>1375.469120859374</v>
       </c>
       <c r="AC21" t="n">
-        <v>1129.259377122903</v>
+        <v>1244.196278447591</v>
       </c>
       <c r="AD21" t="n">
-        <v>912414.2576451511</v>
+        <v>1005280.493359203</v>
       </c>
       <c r="AE21" t="n">
-        <v>1248405.440186238</v>
+        <v>1375469.120859375</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.189257288126159e-06</v>
+        <v>2.021658570147994e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.17206790123457</v>
       </c>
       <c r="AH21" t="n">
-        <v>1129259.377122903</v>
+        <v>1244196.278447591</v>
       </c>
     </row>
     <row r="22">
@@ -24091,28 +24091,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>901.7352056297941</v>
+        <v>984.4346977291402</v>
       </c>
       <c r="AB22" t="n">
-        <v>1233.793890092302</v>
+        <v>1346.946983626725</v>
       </c>
       <c r="AC22" t="n">
-        <v>1116.042332862493</v>
+        <v>1218.396253961354</v>
       </c>
       <c r="AD22" t="n">
-        <v>901735.2056297942</v>
+        <v>984434.6977291402</v>
       </c>
       <c r="AE22" t="n">
-        <v>1233793.890092302</v>
+        <v>1346946.983626725</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.191798323061839e-06</v>
+        <v>2.025978161128057e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.13734567901234</v>
       </c>
       <c r="AH22" t="n">
-        <v>1116042.332862493</v>
+        <v>1218396.253961354</v>
       </c>
     </row>
     <row r="23">
@@ -24197,28 +24197,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>896.3940984106397</v>
+        <v>979.0935905099857</v>
       </c>
       <c r="AB23" t="n">
-        <v>1226.485951562035</v>
+        <v>1339.639045096457</v>
       </c>
       <c r="AC23" t="n">
-        <v>1109.431853728798</v>
+        <v>1211.785774827659</v>
       </c>
       <c r="AD23" t="n">
-        <v>896394.0984106397</v>
+        <v>979093.5905099857</v>
       </c>
       <c r="AE23" t="n">
-        <v>1226485.951562035</v>
+        <v>1339639.045096457</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.193015902301853e-06</v>
+        <v>2.028047965139337e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>1109431.853728798</v>
+        <v>1211785.774827659</v>
       </c>
     </row>
     <row r="24">
@@ -24303,28 +24303,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>894.6009013849892</v>
+        <v>977.3003934843351</v>
       </c>
       <c r="AB24" t="n">
-        <v>1224.03242028127</v>
+        <v>1337.185513815693</v>
       </c>
       <c r="AC24" t="n">
-        <v>1107.212484029917</v>
+        <v>1209.566405128778</v>
       </c>
       <c r="AD24" t="n">
-        <v>894600.9013849893</v>
+        <v>977300.3934843352</v>
       </c>
       <c r="AE24" t="n">
-        <v>1224032.42028127</v>
+        <v>1337185.513815693</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.192962964074026e-06</v>
+        <v>2.027957973660585e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.12191358024691</v>
       </c>
       <c r="AH24" t="n">
-        <v>1107212.484029917</v>
+        <v>1209566.405128778</v>
       </c>
     </row>
     <row r="25">
@@ -24409,28 +24409,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>894.1989991997576</v>
+        <v>976.8984912991035</v>
       </c>
       <c r="AB25" t="n">
-        <v>1223.482519980764</v>
+        <v>1336.635613515186</v>
       </c>
       <c r="AC25" t="n">
-        <v>1106.7150654423</v>
+        <v>1209.068986541161</v>
       </c>
       <c r="AD25" t="n">
-        <v>894198.9991997576</v>
+        <v>976898.4912991035</v>
       </c>
       <c r="AE25" t="n">
-        <v>1223482.519980764</v>
+        <v>1336635.613515186</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.192751211162719e-06</v>
+        <v>2.02759800774558e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.12191358024691</v>
       </c>
       <c r="AH25" t="n">
-        <v>1106715.0654423</v>
+        <v>1209068.986541161</v>
       </c>
     </row>
     <row r="26">
@@ -24515,28 +24515,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>894.7730181493642</v>
+        <v>977.4725102487103</v>
       </c>
       <c r="AB26" t="n">
-        <v>1224.267918031544</v>
+        <v>1337.421011565966</v>
       </c>
       <c r="AC26" t="n">
-        <v>1107.425506205428</v>
+        <v>1209.779427304289</v>
       </c>
       <c r="AD26" t="n">
-        <v>894773.0181493643</v>
+        <v>977472.5102487103</v>
       </c>
       <c r="AE26" t="n">
-        <v>1224267.918031544</v>
+        <v>1337421.011565966</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.194709925592306e-06</v>
+        <v>2.030927692459379e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH26" t="n">
-        <v>1107425.506205428</v>
+        <v>1209779.427304289</v>
       </c>
     </row>
   </sheetData>
@@ -24812,28 +24812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1327.586304505447</v>
+        <v>1442.798809493274</v>
       </c>
       <c r="AB2" t="n">
-        <v>1816.462150798517</v>
+        <v>1974.100982939854</v>
       </c>
       <c r="AC2" t="n">
-        <v>1643.101552546946</v>
+        <v>1785.695555796205</v>
       </c>
       <c r="AD2" t="n">
-        <v>1327586.304505447</v>
+        <v>1442798.809493274</v>
       </c>
       <c r="AE2" t="n">
-        <v>1816462.150798517</v>
+        <v>1974100.982939854</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.141607347658453e-07</v>
+        <v>1.6484481317265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.17052469135803</v>
       </c>
       <c r="AH2" t="n">
-        <v>1643101.552546946</v>
+        <v>1785695.555796205</v>
       </c>
     </row>
     <row r="3">
@@ -24918,28 +24918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>966.2231480674716</v>
+        <v>1071.742076331022</v>
       </c>
       <c r="AB3" t="n">
-        <v>1322.029137942763</v>
+        <v>1466.404790759522</v>
       </c>
       <c r="AC3" t="n">
-        <v>1195.856532497053</v>
+        <v>1326.453175641483</v>
       </c>
       <c r="AD3" t="n">
-        <v>966223.1480674716</v>
+        <v>1071742.076331022</v>
       </c>
       <c r="AE3" t="n">
-        <v>1322029.137942763</v>
+        <v>1466404.790759522</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.114437648027101e-06</v>
+        <v>2.009594799853775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.82638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1195856.532497053</v>
+        <v>1326453.175641483</v>
       </c>
     </row>
     <row r="4">
@@ -25024,28 +25024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>871.7102232295088</v>
+        <v>967.7063459864771</v>
       </c>
       <c r="AB4" t="n">
-        <v>1192.712384563494</v>
+        <v>1324.05851476962</v>
       </c>
       <c r="AC4" t="n">
-        <v>1078.881588563099</v>
+        <v>1197.692228447803</v>
       </c>
       <c r="AD4" t="n">
-        <v>871710.2232295087</v>
+        <v>967706.3459864771</v>
       </c>
       <c r="AE4" t="n">
-        <v>1192712.384563494</v>
+        <v>1324058.51476962</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186942815939239e-06</v>
+        <v>2.140338775218125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.61496913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>1078881.588563099</v>
+        <v>1197692.228447804</v>
       </c>
     </row>
     <row r="5">
@@ -25130,28 +25130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>829.3911118401137</v>
+        <v>915.7791777444791</v>
       </c>
       <c r="AB5" t="n">
-        <v>1134.809509373095</v>
+        <v>1253.009472315936</v>
       </c>
       <c r="AC5" t="n">
-        <v>1026.504882513676</v>
+        <v>1133.424006887942</v>
       </c>
       <c r="AD5" t="n">
-        <v>829391.1118401136</v>
+        <v>915779.177744479</v>
       </c>
       <c r="AE5" t="n">
-        <v>1134809.509373095</v>
+        <v>1253009.472315936</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224455363318743e-06</v>
+        <v>2.207982775110422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.04398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>1026504.882513676</v>
+        <v>1133424.006887942</v>
       </c>
     </row>
     <row r="6">
@@ -25236,28 +25236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>789.2529340635259</v>
+        <v>875.7262513139118</v>
       </c>
       <c r="AB6" t="n">
-        <v>1079.890683767739</v>
+        <v>1198.20729136323</v>
       </c>
       <c r="AC6" t="n">
-        <v>976.827432545039</v>
+        <v>1083.852069170018</v>
       </c>
       <c r="AD6" t="n">
-        <v>789252.9340635259</v>
+        <v>875726.2513139118</v>
       </c>
       <c r="AE6" t="n">
-        <v>1079890.683767739</v>
+        <v>1198207.29136323</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.247306518134654e-06</v>
+        <v>2.249188814739471e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.71604938271605</v>
       </c>
       <c r="AH6" t="n">
-        <v>976827.432545039</v>
+        <v>1083852.069170018</v>
       </c>
     </row>
     <row r="7">
@@ -25342,28 +25342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>767.6937383572355</v>
+        <v>853.9964634070292</v>
       </c>
       <c r="AB7" t="n">
-        <v>1050.392441077805</v>
+        <v>1168.475636898449</v>
       </c>
       <c r="AC7" t="n">
-        <v>950.1444607363887</v>
+        <v>1056.957962078716</v>
       </c>
       <c r="AD7" t="n">
-        <v>767693.7383572354</v>
+        <v>853996.4634070292</v>
       </c>
       <c r="AE7" t="n">
-        <v>1050392.441077805</v>
+        <v>1168475.636898448</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.262769705604067e-06</v>
+        <v>2.277072600954617e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.49614197530865</v>
       </c>
       <c r="AH7" t="n">
-        <v>950144.4607363887</v>
+        <v>1056957.962078716</v>
       </c>
     </row>
     <row r="8">
@@ -25448,28 +25448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>747.3972010144905</v>
+        <v>833.6999260642845</v>
       </c>
       <c r="AB8" t="n">
-        <v>1022.621823265429</v>
+        <v>1140.705019086073</v>
       </c>
       <c r="AC8" t="n">
-        <v>925.0242317117193</v>
+        <v>1031.837733054047</v>
       </c>
       <c r="AD8" t="n">
-        <v>747397.2010144906</v>
+        <v>833699.9260642844</v>
       </c>
       <c r="AE8" t="n">
-        <v>1022621.823265429</v>
+        <v>1140705.019086073</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.27559842409721e-06</v>
+        <v>2.30020581618496e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.32253086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>925024.2317117193</v>
+        <v>1031837.733054047</v>
       </c>
     </row>
     <row r="9">
@@ -25554,28 +25554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>731.1543719132023</v>
+        <v>817.4570969629959</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000.397667906</v>
+        <v>1118.480863726644</v>
       </c>
       <c r="AC9" t="n">
-        <v>904.9211185479963</v>
+        <v>1011.734619890324</v>
       </c>
       <c r="AD9" t="n">
-        <v>731154.3719132023</v>
+        <v>817457.0969629959</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000397.667906001</v>
+        <v>1118480.863726644</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.282528222926096e-06</v>
+        <v>2.312701883340636e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.22608024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>904921.1185479964</v>
+        <v>1011734.619890324</v>
       </c>
     </row>
     <row r="10">
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>714.0253197340713</v>
+        <v>790.8905801318543</v>
       </c>
       <c r="AB10" t="n">
-        <v>976.9609430340649</v>
+        <v>1082.131383366272</v>
       </c>
       <c r="AC10" t="n">
-        <v>883.7211618041883</v>
+        <v>978.8542829187294</v>
       </c>
       <c r="AD10" t="n">
-        <v>714025.3197340714</v>
+        <v>790890.5801318543</v>
       </c>
       <c r="AE10" t="n">
-        <v>976960.943034065</v>
+        <v>1082131.383366272</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.289629834949086e-06</v>
+        <v>2.325507770343147e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.13348765432099</v>
       </c>
       <c r="AH10" t="n">
-        <v>883721.1618041884</v>
+        <v>978854.2829187294</v>
       </c>
     </row>
     <row r="11">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>704.9656216658899</v>
+        <v>781.8308820636729</v>
       </c>
       <c r="AB11" t="n">
-        <v>964.5650644515085</v>
+        <v>1069.735504783715</v>
       </c>
       <c r="AC11" t="n">
-        <v>872.5083284758264</v>
+        <v>967.6414495903673</v>
       </c>
       <c r="AD11" t="n">
-        <v>704965.6216658899</v>
+        <v>781830.8820636729</v>
       </c>
       <c r="AE11" t="n">
-        <v>964565.0644515086</v>
+        <v>1069735.504783715</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.292665201378267e-06</v>
+        <v>2.330981254303899e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.09104938271605</v>
       </c>
       <c r="AH11" t="n">
-        <v>872508.3284758264</v>
+        <v>967641.4495903673</v>
       </c>
     </row>
     <row r="12">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>706.3253299144549</v>
+        <v>783.1905903122379</v>
       </c>
       <c r="AB12" t="n">
-        <v>966.4254772632895</v>
+        <v>1071.595917595496</v>
       </c>
       <c r="AC12" t="n">
-        <v>874.1911860999567</v>
+        <v>969.3243072144976</v>
       </c>
       <c r="AD12" t="n">
-        <v>706325.3299144548</v>
+        <v>783190.5903122379</v>
       </c>
       <c r="AE12" t="n">
-        <v>966425.4772632895</v>
+        <v>1071595.917595496</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.292378846054759e-06</v>
+        <v>2.330464887892507e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.09876543209877</v>
       </c>
       <c r="AH12" t="n">
-        <v>874191.1860999566</v>
+        <v>969324.3072144976</v>
       </c>
     </row>
   </sheetData>
@@ -26169,28 +26169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1007.481504616812</v>
+        <v>1118.331468901383</v>
       </c>
       <c r="AB2" t="n">
-        <v>1378.480641563798</v>
+        <v>1530.150453053229</v>
       </c>
       <c r="AC2" t="n">
-        <v>1246.92038384268</v>
+        <v>1384.115041393477</v>
       </c>
       <c r="AD2" t="n">
-        <v>1007481.504616812</v>
+        <v>1118331.468901383</v>
       </c>
       <c r="AE2" t="n">
-        <v>1378480.641563798</v>
+        <v>1530150.453053229</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.04621295999079e-06</v>
+        <v>1.951898968967866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.99845679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>1246920.38384268</v>
+        <v>1384115.041393477</v>
       </c>
     </row>
     <row r="3">
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>784.3948149943022</v>
+        <v>876.826679134493</v>
       </c>
       <c r="AB3" t="n">
-        <v>1073.24359093214</v>
+        <v>1199.712945254798</v>
       </c>
       <c r="AC3" t="n">
-        <v>970.8147289204164</v>
+        <v>1085.214025567373</v>
       </c>
       <c r="AD3" t="n">
-        <v>784394.8149943022</v>
+        <v>876826.679134493</v>
       </c>
       <c r="AE3" t="n">
-        <v>1073243.59093214</v>
+        <v>1199712.945254798</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.218265088439979e-06</v>
+        <v>2.272893245440657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.89274691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>970814.7289204164</v>
+        <v>1085214.025567373</v>
       </c>
     </row>
     <row r="4">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>714.2807066114784</v>
+        <v>806.6272298970974</v>
       </c>
       <c r="AB4" t="n">
-        <v>977.3103746266071</v>
+        <v>1103.662961827067</v>
       </c>
       <c r="AC4" t="n">
-        <v>884.0372441359686</v>
+        <v>998.3309177509867</v>
       </c>
       <c r="AD4" t="n">
-        <v>714280.7066114785</v>
+        <v>806627.2298970975</v>
       </c>
       <c r="AE4" t="n">
-        <v>977310.3746266071</v>
+        <v>1103662.961827067</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.279235017453527e-06</v>
+        <v>2.386643644384898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.99382716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>884037.2441359686</v>
+        <v>998330.9177509868</v>
       </c>
     </row>
     <row r="5">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>679.3652778897826</v>
+        <v>762.6307623850688</v>
       </c>
       <c r="AB5" t="n">
-        <v>929.5375446895808</v>
+        <v>1043.465053989951</v>
       </c>
       <c r="AC5" t="n">
-        <v>840.8237860385444</v>
+        <v>943.8782137495505</v>
       </c>
       <c r="AD5" t="n">
-        <v>679365.2778897827</v>
+        <v>762630.7623850688</v>
       </c>
       <c r="AE5" t="n">
-        <v>929537.5446895808</v>
+        <v>1043465.053989951</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.310018269284242e-06</v>
+        <v>2.444075352658115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.56944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>840823.7860385444</v>
+        <v>943878.2137495505</v>
       </c>
     </row>
     <row r="6">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>652.1302515789953</v>
+        <v>735.2251438736893</v>
       </c>
       <c r="AB6" t="n">
-        <v>892.2733801666001</v>
+        <v>1005.967477692123</v>
       </c>
       <c r="AC6" t="n">
-        <v>807.1160610770534</v>
+        <v>909.9593535054086</v>
       </c>
       <c r="AD6" t="n">
-        <v>652130.2515789953</v>
+        <v>735225.1438736892</v>
       </c>
       <c r="AE6" t="n">
-        <v>892273.3801666001</v>
+        <v>1005967.477692123</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.328929685622103e-06</v>
+        <v>2.479358010647669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.31867283950617</v>
       </c>
       <c r="AH6" t="n">
-        <v>807116.0610770533</v>
+        <v>909959.3535054085</v>
       </c>
     </row>
     <row r="7">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>632.4981203621048</v>
+        <v>715.5930126567988</v>
       </c>
       <c r="AB7" t="n">
-        <v>865.4118321271483</v>
+        <v>979.1059296526711</v>
       </c>
       <c r="AC7" t="n">
-        <v>782.8181414820673</v>
+        <v>885.6614339104224</v>
       </c>
       <c r="AD7" t="n">
-        <v>632498.1203621048</v>
+        <v>715593.0126567988</v>
       </c>
       <c r="AE7" t="n">
-        <v>865411.8321271483</v>
+        <v>979105.9296526711</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.339906659143134e-06</v>
+        <v>2.499837534528042e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.17592592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>782818.1414820673</v>
+        <v>885661.4339104224</v>
       </c>
     </row>
     <row r="8">
@@ -26805,28 +26805,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>631.7441509628959</v>
+        <v>714.8390432575901</v>
       </c>
       <c r="AB8" t="n">
-        <v>864.3802179323684</v>
+        <v>978.0743154578914</v>
       </c>
       <c r="AC8" t="n">
-        <v>781.8849830981576</v>
+        <v>884.7282755265128</v>
       </c>
       <c r="AD8" t="n">
-        <v>631744.1509628959</v>
+        <v>714839.0432575902</v>
       </c>
       <c r="AE8" t="n">
-        <v>864380.2179323684</v>
+        <v>978074.3154578914</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340264603931863e-06</v>
+        <v>2.500505345089358e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.17206790123457</v>
       </c>
       <c r="AH8" t="n">
-        <v>781884.9830981576</v>
+        <v>884728.2755265128</v>
       </c>
     </row>
     <row r="9">
@@ -26911,28 +26911,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>635.3606686422291</v>
+        <v>718.4555609369231</v>
       </c>
       <c r="AB9" t="n">
-        <v>869.3284969707316</v>
+        <v>983.0225944962546</v>
       </c>
       <c r="AC9" t="n">
-        <v>786.3610053300526</v>
+        <v>889.2042977584078</v>
       </c>
       <c r="AD9" t="n">
-        <v>635360.6686422292</v>
+        <v>718455.5609369231</v>
       </c>
       <c r="AE9" t="n">
-        <v>869328.4969707316</v>
+        <v>983022.5944962546</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.340204946467075e-06</v>
+        <v>2.500394043329139e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.17206790123457</v>
       </c>
       <c r="AH9" t="n">
-        <v>786361.0053300527</v>
+        <v>889204.2977584079</v>
       </c>
     </row>
   </sheetData>
@@ -50957,28 +50957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>815.1268825671422</v>
+        <v>913.6765908239903</v>
       </c>
       <c r="AB2" t="n">
-        <v>1115.292561588434</v>
+        <v>1250.132620131735</v>
       </c>
       <c r="AC2" t="n">
-        <v>1008.850604833374</v>
+        <v>1130.821717438514</v>
       </c>
       <c r="AD2" t="n">
-        <v>815126.8825671421</v>
+        <v>913676.5908239903</v>
       </c>
       <c r="AE2" t="n">
-        <v>1115292.561588434</v>
+        <v>1250132.620131735</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15378439032785e-06</v>
+        <v>2.218770169088222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.63657407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1008850.604833374</v>
+        <v>1130821.717438514</v>
       </c>
     </row>
     <row r="3">
@@ -51063,28 +51063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>662.1123883302547</v>
+        <v>742.7285408026685</v>
       </c>
       <c r="AB3" t="n">
-        <v>905.9313800504661</v>
+        <v>1016.233956396862</v>
       </c>
       <c r="AC3" t="n">
-        <v>819.4705606211265</v>
+        <v>919.2460138916607</v>
       </c>
       <c r="AD3" t="n">
-        <v>662112.3883302547</v>
+        <v>742728.5408026684</v>
       </c>
       <c r="AE3" t="n">
-        <v>905931.3800504662</v>
+        <v>1016233.956396862</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.30263590666668e-06</v>
+        <v>2.505017154959038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.27932098765432</v>
       </c>
       <c r="AH3" t="n">
-        <v>819470.5606211266</v>
+        <v>919246.0138916607</v>
       </c>
     </row>
     <row r="4">
@@ -51169,28 +51169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>602.4952513710645</v>
+        <v>683.1966551894986</v>
       </c>
       <c r="AB4" t="n">
-        <v>824.360583140444</v>
+        <v>934.7798041394893</v>
       </c>
       <c r="AC4" t="n">
-        <v>745.6847660828645</v>
+        <v>845.5657316041109</v>
       </c>
       <c r="AD4" t="n">
-        <v>602495.2513710645</v>
+        <v>683196.6551894987</v>
       </c>
       <c r="AE4" t="n">
-        <v>824360.583140444</v>
+        <v>934779.8041394893</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.354906733507057e-06</v>
+        <v>2.605535893363923e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.5733024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>745684.7660828645</v>
+        <v>845565.7316041108</v>
       </c>
     </row>
     <row r="5">
@@ -51275,28 +51275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>573.5412285459445</v>
+        <v>654.0720401637866</v>
       </c>
       <c r="AB5" t="n">
-        <v>784.7444117497798</v>
+        <v>894.9302209739782</v>
       </c>
       <c r="AC5" t="n">
-        <v>709.8495064880794</v>
+        <v>809.5193367266749</v>
       </c>
       <c r="AD5" t="n">
-        <v>573541.2285459444</v>
+        <v>654072.0401637866</v>
       </c>
       <c r="AE5" t="n">
-        <v>784744.4117497798</v>
+        <v>894930.2209739782</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.3775553680412e-06</v>
+        <v>2.649090057466158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.28395061728395</v>
       </c>
       <c r="AH5" t="n">
-        <v>709849.5064880794</v>
+        <v>809519.3367266748</v>
       </c>
     </row>
     <row r="6">
@@ -51381,28 +51381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>575.3356736976947</v>
+        <v>655.8664853155368</v>
       </c>
       <c r="AB6" t="n">
-        <v>787.1996507717373</v>
+        <v>897.3854599959354</v>
       </c>
       <c r="AC6" t="n">
-        <v>712.0704209437309</v>
+        <v>811.7402511823261</v>
       </c>
       <c r="AD6" t="n">
-        <v>575335.6736976947</v>
+        <v>655866.4853155368</v>
       </c>
       <c r="AE6" t="n">
-        <v>787199.6507717373</v>
+        <v>897385.4599959354</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.378295922848855e-06</v>
+        <v>2.650514171823724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.27623456790123</v>
       </c>
       <c r="AH6" t="n">
-        <v>712070.420943731</v>
+        <v>811740.2511823261</v>
       </c>
     </row>
     <row r="7">
@@ -51487,28 +51487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>579.2203591555315</v>
+        <v>659.7511707733736</v>
       </c>
       <c r="AB7" t="n">
-        <v>792.5148487953765</v>
+        <v>902.7006580195748</v>
       </c>
       <c r="AC7" t="n">
-        <v>716.8783439279213</v>
+        <v>816.5481741665167</v>
       </c>
       <c r="AD7" t="n">
-        <v>579220.3591555315</v>
+        <v>659751.1707733736</v>
       </c>
       <c r="AE7" t="n">
-        <v>792514.8487953765</v>
+        <v>902700.6580195748</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.378234209948217e-06</v>
+        <v>2.65039549562726e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.27623456790123</v>
       </c>
       <c r="AH7" t="n">
-        <v>716878.3439279213</v>
+        <v>816548.1741665166</v>
       </c>
     </row>
   </sheetData>
@@ -51784,28 +51784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.1526091029044</v>
+        <v>587.0879357493592</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.4355973010855</v>
+        <v>803.2796141840342</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.7322701200985</v>
+        <v>726.6157352163287</v>
       </c>
       <c r="AD2" t="n">
-        <v>503152.6091029044</v>
+        <v>587087.9357493592</v>
       </c>
       <c r="AE2" t="n">
-        <v>688435.5973010855</v>
+        <v>803279.6141840343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378585852591635e-06</v>
+        <v>2.843470243995783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.53780864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>622732.2701200985</v>
+        <v>726615.7352163288</v>
       </c>
     </row>
     <row r="3">
@@ -51890,28 +51890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.6883848193948</v>
+        <v>544.5383706112779</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.3341722470295</v>
+        <v>745.0614220077805</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.1759635273393</v>
+        <v>673.9538055916307</v>
       </c>
       <c r="AD3" t="n">
-        <v>460688.3848193948</v>
+        <v>544538.3706112779</v>
       </c>
       <c r="AE3" t="n">
-        <v>630334.1722470295</v>
+        <v>745061.4220077805</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.432833765591805e-06</v>
+        <v>2.95536195253528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.83564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>570175.9635273393</v>
+        <v>673953.8055916307</v>
       </c>
     </row>
     <row r="4">
@@ -51996,28 +51996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>465.5297064406412</v>
+        <v>549.3796922325242</v>
       </c>
       <c r="AB4" t="n">
-        <v>636.9582820732548</v>
+        <v>751.6855318340058</v>
       </c>
       <c r="AC4" t="n">
-        <v>576.1678776087462</v>
+        <v>679.9457196730375</v>
       </c>
       <c r="AD4" t="n">
-        <v>465529.7064406413</v>
+        <v>549379.6922325243</v>
       </c>
       <c r="AE4" t="n">
-        <v>636958.2820732548</v>
+        <v>751685.5318340058</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432833765591805e-06</v>
+        <v>2.95536195253528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.83564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>576167.8776087462</v>
+        <v>679945.7196730375</v>
       </c>
     </row>
   </sheetData>
@@ -52293,28 +52293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1679.453098357118</v>
+        <v>1818.11092108517</v>
       </c>
       <c r="AB2" t="n">
-        <v>2297.90182141374</v>
+        <v>2487.619571621672</v>
       </c>
       <c r="AC2" t="n">
-        <v>2078.593296703474</v>
+        <v>2250.204651102096</v>
       </c>
       <c r="AD2" t="n">
-        <v>1679453.098357118</v>
+        <v>1818110.92108517</v>
       </c>
       <c r="AE2" t="n">
-        <v>2297901.82141374</v>
+        <v>2487619.571621672</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.036985540159322e-07</v>
+        <v>1.412066655285682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.58950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>2078593.296703474</v>
+        <v>2250204.651102096</v>
       </c>
     </row>
     <row r="3">
@@ -52399,28 +52399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1147.507925947715</v>
+        <v>1256.435070765204</v>
       </c>
       <c r="AB3" t="n">
-        <v>1570.07096875846</v>
+        <v>1719.109893824222</v>
       </c>
       <c r="AC3" t="n">
-        <v>1420.225599108596</v>
+        <v>1555.040458343527</v>
       </c>
       <c r="AD3" t="n">
-        <v>1147507.925947715</v>
+        <v>1256435.070765204</v>
       </c>
       <c r="AE3" t="n">
-        <v>1570070.96875846</v>
+        <v>1719109.893824222</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.027542089530329e-06</v>
+        <v>1.80535091705489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1420225.599108597</v>
+        <v>1555040.458343527</v>
       </c>
     </row>
     <row r="4">
@@ -52505,28 +52505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1021.395961961936</v>
+        <v>1120.327629463217</v>
       </c>
       <c r="AB4" t="n">
-        <v>1397.51901596593</v>
+        <v>1532.881687998319</v>
       </c>
       <c r="AC4" t="n">
-        <v>1264.141762512399</v>
+        <v>1386.58561110872</v>
       </c>
       <c r="AD4" t="n">
-        <v>1021395.961961936</v>
+        <v>1120327.629463217</v>
       </c>
       <c r="AE4" t="n">
-        <v>1397519.01596593</v>
+        <v>1532881.687998319</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.110576353261109e-06</v>
+        <v>1.951238842912856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.24382716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>1264141.762512399</v>
+        <v>1386585.61110872</v>
       </c>
     </row>
     <row r="5">
@@ -52611,28 +52611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>956.9912207695602</v>
+        <v>1056.008139616862</v>
       </c>
       <c r="AB5" t="n">
-        <v>1309.397607729872</v>
+        <v>1444.87692441491</v>
       </c>
       <c r="AC5" t="n">
-        <v>1184.430537799217</v>
+        <v>1306.97989864625</v>
       </c>
       <c r="AD5" t="n">
-        <v>956991.2207695602</v>
+        <v>1056008.139616862</v>
       </c>
       <c r="AE5" t="n">
-        <v>1309397.607729872</v>
+        <v>1444876.92441491</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153395223083585e-06</v>
+        <v>2.026469908081774e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.5300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1184430.537799217</v>
+        <v>1306979.89864625</v>
       </c>
     </row>
     <row r="6">
@@ -52717,28 +52717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>921.3747048242984</v>
+        <v>1010.481487209964</v>
       </c>
       <c r="AB6" t="n">
-        <v>1260.665519323778</v>
+        <v>1382.585350097641</v>
       </c>
       <c r="AC6" t="n">
-        <v>1140.349371514684</v>
+        <v>1250.633344755047</v>
       </c>
       <c r="AD6" t="n">
-        <v>921374.7048242984</v>
+        <v>1010481.487209964</v>
       </c>
       <c r="AE6" t="n">
-        <v>1260665.519323778</v>
+        <v>1382585.350097641</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.180704023630132e-06</v>
+        <v>2.074450393370618e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.10185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1140349.371514685</v>
+        <v>1250633.344755047</v>
       </c>
     </row>
     <row r="7">
@@ -52823,28 +52823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>888.2791847913505</v>
+        <v>987.210762784081</v>
       </c>
       <c r="AB7" t="n">
-        <v>1215.382768743401</v>
+        <v>1350.745318306241</v>
       </c>
       <c r="AC7" t="n">
-        <v>1099.388343094959</v>
+        <v>1221.832080910054</v>
       </c>
       <c r="AD7" t="n">
-        <v>888279.1847913505</v>
+        <v>987210.762784081</v>
       </c>
       <c r="AE7" t="n">
-        <v>1215382.768743401</v>
+        <v>1350745.318306241</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.197654313624541e-06</v>
+        <v>2.104231384239556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.84336419753086</v>
       </c>
       <c r="AH7" t="n">
-        <v>1099388.343094959</v>
+        <v>1221832.080910054</v>
       </c>
     </row>
     <row r="8">
@@ -52929,28 +52929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>867.0375992390415</v>
+        <v>956.2296329707277</v>
       </c>
       <c r="AB8" t="n">
-        <v>1186.319094278115</v>
+        <v>1308.355569704627</v>
       </c>
       <c r="AC8" t="n">
-        <v>1073.098464929518</v>
+        <v>1183.487950420592</v>
       </c>
       <c r="AD8" t="n">
-        <v>867037.5992390414</v>
+        <v>956229.6329707277</v>
       </c>
       <c r="AE8" t="n">
-        <v>1186319.094278115</v>
+        <v>1308355.569704627</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.211724162181992e-06</v>
+        <v>2.128951553130766e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.63503086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>1073098.464929518</v>
+        <v>1183487.950420592</v>
       </c>
     </row>
     <row r="9">
@@ -53035,28 +53035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>851.7612692311047</v>
+        <v>940.9533029627913</v>
       </c>
       <c r="AB9" t="n">
-        <v>1165.417345617141</v>
+        <v>1287.453821043653</v>
       </c>
       <c r="AC9" t="n">
-        <v>1054.191549824958</v>
+        <v>1164.581035316033</v>
       </c>
       <c r="AD9" t="n">
-        <v>851761.2692311048</v>
+        <v>940953.3029627913</v>
       </c>
       <c r="AE9" t="n">
-        <v>1165417.345617141</v>
+        <v>1287453.821043653</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.220919417538435e-06</v>
+        <v>2.145107254059667e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.50385802469136</v>
       </c>
       <c r="AH9" t="n">
-        <v>1054191.549824958</v>
+        <v>1164581.035316033</v>
       </c>
     </row>
     <row r="10">
@@ -53141,28 +53141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>837.817402050949</v>
+        <v>926.8388435820434</v>
       </c>
       <c r="AB10" t="n">
-        <v>1146.338731381248</v>
+        <v>1268.141795032913</v>
       </c>
       <c r="AC10" t="n">
-        <v>1036.933771754735</v>
+        <v>1147.112121963159</v>
       </c>
       <c r="AD10" t="n">
-        <v>837817.4020509491</v>
+        <v>926838.8435820434</v>
       </c>
       <c r="AE10" t="n">
-        <v>1146338.731381248</v>
+        <v>1268141.795032913</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227677376294376e-06</v>
+        <v>2.156980721007413e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.4074074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1036933.771754735</v>
+        <v>1147112.121963159</v>
       </c>
     </row>
     <row r="11">
@@ -53247,28 +53247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>823.9809879279958</v>
+        <v>913.0024294590901</v>
       </c>
       <c r="AB11" t="n">
-        <v>1127.407139158713</v>
+        <v>1249.210202810378</v>
       </c>
       <c r="AC11" t="n">
-        <v>1019.808984123263</v>
+        <v>1129.987334331686</v>
       </c>
       <c r="AD11" t="n">
-        <v>823980.9879279957</v>
+        <v>913002.4294590901</v>
       </c>
       <c r="AE11" t="n">
-        <v>1127407.139158713</v>
+        <v>1249210.202810379</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.235155445409556e-06</v>
+        <v>2.170119393449592e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.30324074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>1019808.984123263</v>
+        <v>1129987.334331687</v>
       </c>
     </row>
     <row r="12">
@@ -53353,28 +53353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>810.6390932583473</v>
+        <v>899.6605347894416</v>
       </c>
       <c r="AB12" t="n">
-        <v>1109.152170268849</v>
+        <v>1230.955233920514</v>
       </c>
       <c r="AC12" t="n">
-        <v>1003.296243843238</v>
+        <v>1113.474594051661</v>
       </c>
       <c r="AD12" t="n">
-        <v>810639.0932583474</v>
+        <v>899660.5347894416</v>
       </c>
       <c r="AE12" t="n">
-        <v>1109152.170268849</v>
+        <v>1230955.233920514</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.239642286878665e-06</v>
+        <v>2.178002596914898e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.24151234567901</v>
       </c>
       <c r="AH12" t="n">
-        <v>1003296.243843238</v>
+        <v>1113474.594051661</v>
       </c>
     </row>
     <row r="13">
@@ -53459,28 +53459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>798.2721164603792</v>
+        <v>887.2935579914734</v>
       </c>
       <c r="AB13" t="n">
-        <v>1092.231127021359</v>
+        <v>1214.034190673024</v>
       </c>
       <c r="AC13" t="n">
-        <v>987.9901212144542</v>
+        <v>1098.168471422878</v>
       </c>
       <c r="AD13" t="n">
-        <v>798272.1164603791</v>
+        <v>887293.5579914735</v>
       </c>
       <c r="AE13" t="n">
-        <v>1092231.127021359</v>
+        <v>1214034.190673024</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.244406093870557e-06</v>
+        <v>2.186372417878064e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.17206790123457</v>
       </c>
       <c r="AH13" t="n">
-        <v>987990.1212144542</v>
+        <v>1098168.471422878</v>
       </c>
     </row>
     <row r="14">
@@ -53565,28 +53565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>786.1548524432734</v>
+        <v>865.4367497133236</v>
       </c>
       <c r="AB14" t="n">
-        <v>1075.651751817195</v>
+        <v>1184.128741332531</v>
       </c>
       <c r="AC14" t="n">
-        <v>972.9930583104764</v>
+        <v>1071.11715619488</v>
       </c>
       <c r="AD14" t="n">
-        <v>786154.8524432734</v>
+        <v>865436.7497133235</v>
       </c>
       <c r="AE14" t="n">
-        <v>1075651.751817195</v>
+        <v>1184128.741332531</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.247785073248528e-06</v>
+        <v>2.192309151351938e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.12577160493827</v>
       </c>
       <c r="AH14" t="n">
-        <v>972993.0583104764</v>
+        <v>1071117.15619488</v>
       </c>
     </row>
     <row r="15">
@@ -53671,28 +53671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>777.1590212660362</v>
+        <v>856.4409185360863</v>
       </c>
       <c r="AB15" t="n">
-        <v>1063.343258732437</v>
+        <v>1171.820248247774</v>
       </c>
       <c r="AC15" t="n">
-        <v>961.8592705306492</v>
+        <v>1059.983368415053</v>
       </c>
       <c r="AD15" t="n">
-        <v>777159.0212660362</v>
+        <v>856440.9185360863</v>
       </c>
       <c r="AE15" t="n">
-        <v>1063343.258732437</v>
+        <v>1171820.248247774</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.250277762953588e-06</v>
+        <v>2.196688708832664e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.09104938271605</v>
       </c>
       <c r="AH15" t="n">
-        <v>961859.2705306491</v>
+        <v>1059983.368415053</v>
       </c>
     </row>
     <row r="16">
@@ -53777,28 +53777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>775.0574357244667</v>
+        <v>854.3393329945168</v>
       </c>
       <c r="AB16" t="n">
-        <v>1060.467776679051</v>
+        <v>1168.944766194388</v>
       </c>
       <c r="AC16" t="n">
-        <v>959.2582204486739</v>
+        <v>1057.382318333078</v>
       </c>
       <c r="AD16" t="n">
-        <v>775057.4357244667</v>
+        <v>854339.3329945168</v>
       </c>
       <c r="AE16" t="n">
-        <v>1060467.776679051</v>
+        <v>1168944.766194388</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.252327307822193e-06</v>
+        <v>2.200289678316817e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.06404320987654</v>
       </c>
       <c r="AH16" t="n">
-        <v>959258.2204486739</v>
+        <v>1057382.318333078</v>
       </c>
     </row>
     <row r="17">
@@ -53883,28 +53883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>778.2905013521186</v>
+        <v>857.5723986221685</v>
       </c>
       <c r="AB17" t="n">
-        <v>1064.891399703593</v>
+        <v>1173.36838921893</v>
       </c>
       <c r="AC17" t="n">
-        <v>963.2596591003477</v>
+        <v>1061.383756984752</v>
       </c>
       <c r="AD17" t="n">
-        <v>778290.5013521186</v>
+        <v>857572.3986221686</v>
       </c>
       <c r="AE17" t="n">
-        <v>1064891.399703593</v>
+        <v>1173368.38921893</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.25238270092675e-06</v>
+        <v>2.200387001816388e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.06404320987654</v>
       </c>
       <c r="AH17" t="n">
-        <v>963259.6591003477</v>
+        <v>1061383.756984752</v>
       </c>
     </row>
   </sheetData>
@@ -54180,28 +54180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2259.545173943682</v>
+        <v>2413.328524183895</v>
       </c>
       <c r="AB2" t="n">
-        <v>3091.609391087647</v>
+        <v>3302.022555328909</v>
       </c>
       <c r="AC2" t="n">
-        <v>2796.550529903157</v>
+        <v>2986.882157065957</v>
       </c>
       <c r="AD2" t="n">
-        <v>2259545.173943682</v>
+        <v>2413328.524183895</v>
       </c>
       <c r="AE2" t="n">
-        <v>3091609.391087647</v>
+        <v>3302022.555328909</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.791887752073756e-07</v>
+        <v>1.161337115180492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.32021604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>2796550.529903158</v>
+        <v>2986882.157065956</v>
       </c>
     </row>
     <row r="3">
@@ -54286,28 +54286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1411.180142015981</v>
+        <v>1523.931865166532</v>
       </c>
       <c r="AB3" t="n">
-        <v>1930.838927180262</v>
+        <v>2085.110809049805</v>
       </c>
       <c r="AC3" t="n">
-        <v>1746.562369919631</v>
+        <v>1886.110759905492</v>
       </c>
       <c r="AD3" t="n">
-        <v>1411180.142015981</v>
+        <v>1523931.865166532</v>
       </c>
       <c r="AE3" t="n">
-        <v>1930838.927180262</v>
+        <v>2085110.809049805</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.264916355921423e-07</v>
+        <v>1.584197446415262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.22608024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>1746562.369919631</v>
+        <v>1886110.759905492</v>
       </c>
     </row>
     <row r="4">
@@ -54392,28 +54392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1222.219103631256</v>
+        <v>1324.712920009391</v>
       </c>
       <c r="AB4" t="n">
-        <v>1672.294098089619</v>
+        <v>1812.530659366236</v>
       </c>
       <c r="AC4" t="n">
-        <v>1512.692696447453</v>
+        <v>1639.545277139079</v>
       </c>
       <c r="AD4" t="n">
-        <v>1222219.103631256</v>
+        <v>1324712.920009391</v>
       </c>
       <c r="AE4" t="n">
-        <v>1672294.098089619</v>
+        <v>1812530.659366236</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.020598033791655e-06</v>
+        <v>1.74510889989398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.17746913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>1512692.696447453</v>
+        <v>1639545.277139079</v>
       </c>
     </row>
     <row r="5">
@@ -54498,28 +54498,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1135.787361323582</v>
+        <v>1238.195836847145</v>
       </c>
       <c r="AB5" t="n">
-        <v>1554.034375164903</v>
+        <v>1694.154169319322</v>
       </c>
       <c r="AC5" t="n">
-        <v>1405.719515500108</v>
+        <v>1532.466473159796</v>
       </c>
       <c r="AD5" t="n">
-        <v>1135787.361323582</v>
+        <v>1238195.836847145</v>
       </c>
       <c r="AE5" t="n">
-        <v>1554034.375164903</v>
+        <v>1694154.169319322</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.070560364316184e-06</v>
+        <v>1.830538917169124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.23611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1405719.515500108</v>
+        <v>1532466.473159796</v>
       </c>
     </row>
     <row r="6">
@@ -54604,28 +54604,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1078.025131289928</v>
+        <v>1180.518858159513</v>
       </c>
       <c r="AB6" t="n">
-        <v>1475.00154374312</v>
+        <v>1615.237982550188</v>
       </c>
       <c r="AC6" t="n">
-        <v>1334.229466585944</v>
+        <v>1461.081936496344</v>
       </c>
       <c r="AD6" t="n">
-        <v>1078025.131289928</v>
+        <v>1180518.858159513</v>
       </c>
       <c r="AE6" t="n">
-        <v>1475001.54374312</v>
+        <v>1615237.982550188</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.103228041966838e-06</v>
+        <v>1.886397005387488e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.66512345679012</v>
       </c>
       <c r="AH6" t="n">
-        <v>1334229.466585944</v>
+        <v>1461081.936496344</v>
       </c>
     </row>
     <row r="7">
@@ -54710,28 +54710,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1047.514676213322</v>
+        <v>1139.750585819041</v>
       </c>
       <c r="AB7" t="n">
-        <v>1433.255793081026</v>
+        <v>1559.457033764716</v>
       </c>
       <c r="AC7" t="n">
-        <v>1296.467871776512</v>
+        <v>1410.624643173904</v>
       </c>
       <c r="AD7" t="n">
-        <v>1047514.676213322</v>
+        <v>1139750.585819041</v>
       </c>
       <c r="AE7" t="n">
-        <v>1433255.793081026</v>
+        <v>1559457.033764716</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.124739600942676e-06</v>
+        <v>1.923179373936509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>1296467.871776512</v>
+        <v>1410624.643173904</v>
       </c>
     </row>
     <row r="8">
@@ -54816,28 +54816,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1024.614835242711</v>
+        <v>1116.850744848431</v>
       </c>
       <c r="AB8" t="n">
-        <v>1401.923220395355</v>
+        <v>1528.124461079044</v>
       </c>
       <c r="AC8" t="n">
-        <v>1268.125635852419</v>
+        <v>1382.282407249811</v>
       </c>
       <c r="AD8" t="n">
-        <v>1024614.835242711</v>
+        <v>1116850.744848431</v>
       </c>
       <c r="AE8" t="n">
-        <v>1401923.220395355</v>
+        <v>1528124.461079044</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.140379518510718e-06</v>
+        <v>1.949921890027981e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.05941358024691</v>
       </c>
       <c r="AH8" t="n">
-        <v>1268125.635852419</v>
+        <v>1382282.407249811</v>
       </c>
     </row>
     <row r="9">
@@ -54922,28 +54922,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>997.1571405572067</v>
+        <v>1099.565526572219</v>
       </c>
       <c r="AB9" t="n">
-        <v>1364.35439117865</v>
+        <v>1504.474062863521</v>
       </c>
       <c r="AC9" t="n">
-        <v>1234.142322967974</v>
+        <v>1360.889169846435</v>
       </c>
       <c r="AD9" t="n">
-        <v>997157.1405572067</v>
+        <v>1099565.526572219</v>
       </c>
       <c r="AE9" t="n">
-        <v>1364354.39117865</v>
+        <v>1504474.062863521</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.151642394302038e-06</v>
+        <v>1.969180152469279e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1234142.322967974</v>
+        <v>1360889.169846435</v>
       </c>
     </row>
     <row r="10">
@@ -55028,28 +55028,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>980.9170936296659</v>
+        <v>1073.238254581406</v>
       </c>
       <c r="AB10" t="n">
-        <v>1342.134042512083</v>
+        <v>1468.451927848423</v>
       </c>
       <c r="AC10" t="n">
-        <v>1214.042653191689</v>
+        <v>1328.304936839794</v>
       </c>
       <c r="AD10" t="n">
-        <v>980917.0936296659</v>
+        <v>1073238.254581406</v>
       </c>
       <c r="AE10" t="n">
-        <v>1342134.042512083</v>
+        <v>1468451.927848423</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.161464049020535e-06</v>
+        <v>1.985974087489179e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.73148148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>1214042.653191689</v>
+        <v>1328304.936839794</v>
       </c>
     </row>
     <row r="11">
@@ -55134,28 +55134,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>966.6564871610185</v>
+        <v>1058.977648112759</v>
       </c>
       <c r="AB11" t="n">
-        <v>1322.622051608125</v>
+        <v>1448.939936944464</v>
       </c>
       <c r="AC11" t="n">
-        <v>1196.392859314353</v>
+        <v>1310.655142962458</v>
       </c>
       <c r="AD11" t="n">
-        <v>966656.4871610185</v>
+        <v>1058977.648112759</v>
       </c>
       <c r="AE11" t="n">
-        <v>1322622.051608125</v>
+        <v>1448939.936944464</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.167762718894354e-06</v>
+        <v>1.99674411103455e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.63503086419753</v>
       </c>
       <c r="AH11" t="n">
-        <v>1196392.859314353</v>
+        <v>1310655.142962458</v>
       </c>
     </row>
     <row r="12">
@@ -55240,28 +55240,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>955.218012378714</v>
+        <v>1047.539173330454</v>
       </c>
       <c r="AB12" t="n">
-        <v>1306.971425781083</v>
+        <v>1433.289311117423</v>
       </c>
       <c r="AC12" t="n">
-        <v>1182.235907250453</v>
+        <v>1296.498190898558</v>
       </c>
       <c r="AD12" t="n">
-        <v>955218.0123787139</v>
+        <v>1047539.173330454</v>
       </c>
       <c r="AE12" t="n">
-        <v>1306971.425781083</v>
+        <v>1433289.311117423</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.175022202816721e-06</v>
+        <v>2.00915701952752e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.52700617283951</v>
       </c>
       <c r="AH12" t="n">
-        <v>1182235.907250453</v>
+        <v>1296498.190898558</v>
       </c>
     </row>
     <row r="13">
@@ -55346,28 +55346,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>946.5816359494651</v>
+        <v>1038.732204700613</v>
       </c>
       <c r="AB13" t="n">
-        <v>1295.154754540547</v>
+        <v>1421.23922810204</v>
       </c>
       <c r="AC13" t="n">
-        <v>1171.547002528311</v>
+        <v>1285.598150893765</v>
       </c>
       <c r="AD13" t="n">
-        <v>946581.6359494651</v>
+        <v>1038732.204700613</v>
       </c>
       <c r="AE13" t="n">
-        <v>1295154.754540547</v>
+        <v>1421239.22810204</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.179399244593443e-06</v>
+        <v>2.016641273177692e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.46141975308642</v>
       </c>
       <c r="AH13" t="n">
-        <v>1171547.002528311</v>
+        <v>1285598.150893765</v>
       </c>
     </row>
     <row r="14">
@@ -55452,28 +55452,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>935.5498352664162</v>
+        <v>1027.700404017564</v>
       </c>
       <c r="AB14" t="n">
-        <v>1280.060558157302</v>
+        <v>1406.145031718795</v>
       </c>
       <c r="AC14" t="n">
-        <v>1157.893375063046</v>
+        <v>1271.944523428499</v>
       </c>
       <c r="AD14" t="n">
-        <v>935549.8352664162</v>
+        <v>1027700.404017564</v>
       </c>
       <c r="AE14" t="n">
-        <v>1280060.558157302</v>
+        <v>1406145.031718795</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.184310071952691e-06</v>
+        <v>2.025038240687643e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.38811728395062</v>
       </c>
       <c r="AH14" t="n">
-        <v>1157893.375063046</v>
+        <v>1271944.523428499</v>
       </c>
     </row>
     <row r="15">
@@ -55558,28 +55558,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>924.1295540366247</v>
+        <v>1016.280122787773</v>
       </c>
       <c r="AB15" t="n">
-        <v>1264.434825551452</v>
+        <v>1390.519299112945</v>
       </c>
       <c r="AC15" t="n">
-        <v>1143.758940446245</v>
+        <v>1257.810088811698</v>
       </c>
       <c r="AD15" t="n">
-        <v>924129.5540366246</v>
+        <v>1016280.122787773</v>
       </c>
       <c r="AE15" t="n">
-        <v>1264434.825551452</v>
+        <v>1390519.299112945</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.187993192472127e-06</v>
+        <v>2.031335966320105e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.33410493827161</v>
       </c>
       <c r="AH15" t="n">
-        <v>1143758.940446245</v>
+        <v>1257810.088811698</v>
       </c>
     </row>
     <row r="16">
@@ -55664,28 +55664,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>916.5390504566626</v>
+        <v>1008.689619207811</v>
       </c>
       <c r="AB16" t="n">
-        <v>1254.049163683964</v>
+        <v>1380.133637245457</v>
       </c>
       <c r="AC16" t="n">
-        <v>1134.364471571022</v>
+        <v>1248.415619936475</v>
       </c>
       <c r="AD16" t="n">
-        <v>916539.0504566627</v>
+        <v>1008689.619207811</v>
       </c>
       <c r="AE16" t="n">
-        <v>1254049.163683964</v>
+        <v>1380133.637245457</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191729691549817e-06</v>
+        <v>2.037724963338546e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.2800925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>1134364.471571022</v>
+        <v>1248415.619936475</v>
       </c>
     </row>
     <row r="17">
@@ -55770,28 +55770,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>907.2855206934632</v>
+        <v>999.4360894446112</v>
       </c>
       <c r="AB17" t="n">
-        <v>1241.388076025034</v>
+        <v>1367.472549586526</v>
       </c>
       <c r="AC17" t="n">
-        <v>1122.911740348311</v>
+        <v>1236.962888713765</v>
       </c>
       <c r="AD17" t="n">
-        <v>907285.5206934633</v>
+        <v>999436.0894446112</v>
       </c>
       <c r="AE17" t="n">
-        <v>1241388.076025034</v>
+        <v>1367472.549586526</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.195092540719737e-06</v>
+        <v>2.043475060655142e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.22993827160494</v>
       </c>
       <c r="AH17" t="n">
-        <v>1122911.740348311</v>
+        <v>1236962.888713765</v>
       </c>
     </row>
     <row r="18">
@@ -55876,28 +55876,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>899.1635480396461</v>
+        <v>991.3141167907938</v>
       </c>
       <c r="AB18" t="n">
-        <v>1230.275234723936</v>
+        <v>1356.359708285428</v>
       </c>
       <c r="AC18" t="n">
-        <v>1112.859493024019</v>
+        <v>1226.910641389473</v>
       </c>
       <c r="AD18" t="n">
-        <v>899163.5480396461</v>
+        <v>991314.1167907938</v>
       </c>
       <c r="AE18" t="n">
-        <v>1230275.234723936</v>
+        <v>1356359.708285429</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.196160111884791e-06</v>
+        <v>2.045300488374696e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.21450617283951</v>
       </c>
       <c r="AH18" t="n">
-        <v>1112859.49302402</v>
+        <v>1226910.641389473</v>
       </c>
     </row>
     <row r="19">
@@ -55982,28 +55982,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>886.8676212210926</v>
+        <v>979.0181899722404</v>
       </c>
       <c r="AB19" t="n">
-        <v>1213.451405192784</v>
+        <v>1339.535878754277</v>
       </c>
       <c r="AC19" t="n">
-        <v>1097.641306170928</v>
+        <v>1211.692454536382</v>
       </c>
       <c r="AD19" t="n">
-        <v>886867.6212210925</v>
+        <v>979018.1899722404</v>
       </c>
       <c r="AE19" t="n">
-        <v>1213451.405192784</v>
+        <v>1339535.878754277</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.200110125195491e-06</v>
+        <v>2.052054570937048e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.16049382716049</v>
       </c>
       <c r="AH19" t="n">
-        <v>1097641.306170928</v>
+        <v>1211692.454536382</v>
       </c>
     </row>
     <row r="20">
@@ -56088,28 +56088,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>880.2342516318564</v>
+        <v>962.297595319732</v>
       </c>
       <c r="AB20" t="n">
-        <v>1204.375336277179</v>
+        <v>1316.658023490141</v>
       </c>
       <c r="AC20" t="n">
-        <v>1089.431444534285</v>
+        <v>1190.998029669383</v>
       </c>
       <c r="AD20" t="n">
-        <v>880234.2516318564</v>
+        <v>962297.595319732</v>
       </c>
       <c r="AE20" t="n">
-        <v>1204375.336277179</v>
+        <v>1316658.02349014</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.201658103384819e-06</v>
+        <v>2.054701441130401e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.13734567901234</v>
       </c>
       <c r="AH20" t="n">
-        <v>1089431.444534285</v>
+        <v>1190998.029669383</v>
       </c>
     </row>
     <row r="21">
@@ -56194,28 +56194,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>870.1769421046133</v>
+        <v>952.2402857924887</v>
       </c>
       <c r="AB21" t="n">
-        <v>1190.614481684823</v>
+        <v>1302.897168897785</v>
       </c>
       <c r="AC21" t="n">
-        <v>1076.983906590743</v>
+        <v>1178.550491725841</v>
       </c>
       <c r="AD21" t="n">
-        <v>870176.9421046133</v>
+        <v>952240.2857924887</v>
       </c>
       <c r="AE21" t="n">
-        <v>1190614.481684823</v>
+        <v>1302897.168897785</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.204006759947938e-06</v>
+        <v>2.058717382113421e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.10262345679012</v>
       </c>
       <c r="AH21" t="n">
-        <v>1076983.906590743</v>
+        <v>1178550.491725841</v>
       </c>
     </row>
     <row r="22">
@@ -56300,28 +56300,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>868.6030826714791</v>
+        <v>950.6664263593548</v>
       </c>
       <c r="AB22" t="n">
-        <v>1188.461057774632</v>
+        <v>1300.743744987593</v>
       </c>
       <c r="AC22" t="n">
-        <v>1075.036002436191</v>
+        <v>1176.602587571288</v>
       </c>
       <c r="AD22" t="n">
-        <v>868603.0826714791</v>
+        <v>950666.4263593548</v>
       </c>
       <c r="AE22" t="n">
-        <v>1188461.057774632</v>
+        <v>1300743.744987593</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.203099324457642e-06</v>
+        <v>2.057165768551799e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>1075036.002436191</v>
+        <v>1176602.587571288</v>
       </c>
     </row>
     <row r="23">
@@ -56406,28 +56406,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>869.2924344181847</v>
+        <v>951.3557781060601</v>
       </c>
       <c r="AB23" t="n">
-        <v>1189.404259246526</v>
+        <v>1301.686946459488</v>
       </c>
       <c r="AC23" t="n">
-        <v>1075.8891860834</v>
+        <v>1177.455771218497</v>
       </c>
       <c r="AD23" t="n">
-        <v>869292.4344181847</v>
+        <v>951355.7781060601</v>
       </c>
       <c r="AE23" t="n">
-        <v>1189404.259246527</v>
+        <v>1301686.946459488</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>2.060086452903087e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH23" t="n">
-        <v>1075889.1860834</v>
+        <v>1177455.771218497</v>
       </c>
     </row>
     <row r="24">
@@ -56512,28 +56512,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>872.4701868173863</v>
+        <v>954.5335305052619</v>
       </c>
       <c r="AB24" t="n">
-        <v>1193.752200271656</v>
+        <v>1306.034887484617</v>
       </c>
       <c r="AC24" t="n">
-        <v>1079.822165719464</v>
+        <v>1181.388750854562</v>
       </c>
       <c r="AD24" t="n">
-        <v>872470.1868173863</v>
+        <v>954533.5305052618</v>
       </c>
       <c r="AE24" t="n">
-        <v>1193752.200271656</v>
+        <v>1306034.887484617</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.204914195438234e-06</v>
+        <v>2.060268995675042e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.09104938271605</v>
       </c>
       <c r="AH24" t="n">
-        <v>1079822.165719464</v>
+        <v>1181388.750854562</v>
       </c>
     </row>
     <row r="25">
@@ -56618,28 +56618,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>875.7134422579874</v>
+        <v>957.7767859458629</v>
       </c>
       <c r="AB25" t="n">
-        <v>1198.189765447818</v>
+        <v>1310.472452660779</v>
       </c>
       <c r="AC25" t="n">
-        <v>1083.836215903375</v>
+        <v>1185.402801038473</v>
       </c>
       <c r="AD25" t="n">
-        <v>875713.4422579873</v>
+        <v>957776.7859458629</v>
       </c>
       <c r="AE25" t="n">
-        <v>1198189.765447818</v>
+        <v>1310472.452660779</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>2.060086452903087e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.09104938271605</v>
       </c>
       <c r="AH25" t="n">
-        <v>1083836.215903375</v>
+        <v>1185402.801038473</v>
       </c>
     </row>
     <row r="26">
@@ -56724,28 +56724,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>878.9044475413402</v>
+        <v>960.9677912292159</v>
       </c>
       <c r="AB26" t="n">
-        <v>1202.555839653719</v>
+        <v>1314.83852686668</v>
       </c>
       <c r="AC26" t="n">
-        <v>1087.785598114889</v>
+        <v>1189.352183249986</v>
       </c>
       <c r="AD26" t="n">
-        <v>878904.4475413403</v>
+        <v>960967.7912292159</v>
       </c>
       <c r="AE26" t="n">
-        <v>1202555.839653719</v>
+        <v>1314838.52686668</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.204807438321728e-06</v>
+        <v>2.060086452903087e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH26" t="n">
-        <v>1087785.598114889</v>
+        <v>1189352.183249986</v>
       </c>
     </row>
   </sheetData>
@@ -57021,28 +57021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.6975291394239</v>
+        <v>491.9914729523247</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.934478064793</v>
+        <v>673.164438425287</v>
       </c>
       <c r="AC2" t="n">
-        <v>508.3042401582817</v>
+        <v>608.9185692142</v>
       </c>
       <c r="AD2" t="n">
-        <v>410697.5291394239</v>
+        <v>491991.4729523247</v>
       </c>
       <c r="AE2" t="n">
-        <v>561934.4780647929</v>
+        <v>673164.438425287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.429586361002403e-06</v>
+        <v>3.064262025469803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.5108024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>508304.2401582817</v>
+        <v>608918.5692142</v>
       </c>
     </row>
     <row r="3">
@@ -57127,28 +57127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.3595375316422</v>
+        <v>497.6534813445432</v>
       </c>
       <c r="AB3" t="n">
-        <v>569.6814877372071</v>
+        <v>680.9114480977012</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.3118861005571</v>
+        <v>615.9262151564755</v>
       </c>
       <c r="AD3" t="n">
-        <v>416359.5375316422</v>
+        <v>497653.4813445432</v>
       </c>
       <c r="AE3" t="n">
-        <v>569681.4877372071</v>
+        <v>680911.4480977012</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429654949322751e-06</v>
+        <v>3.064409041831434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.5108024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>515311.8861005571</v>
+        <v>615926.2151564754</v>
       </c>
     </row>
   </sheetData>
@@ -57424,28 +57424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1111.926360415961</v>
+        <v>1224.379947262342</v>
       </c>
       <c r="AB2" t="n">
-        <v>1521.386701050031</v>
+        <v>1675.250659675364</v>
       </c>
       <c r="AC2" t="n">
-        <v>1376.187689581461</v>
+        <v>1515.367087945015</v>
       </c>
       <c r="AD2" t="n">
-        <v>1111926.360415961</v>
+        <v>1224379.947262342</v>
       </c>
       <c r="AE2" t="n">
-        <v>1521386.701050031</v>
+        <v>1675250.659675364</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.983950428864878e-07</v>
+        <v>1.839475509900645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.71604938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>1376187.689581461</v>
+        <v>1515367.087945015</v>
       </c>
     </row>
     <row r="3">
@@ -57530,28 +57530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>851.4934387486684</v>
+        <v>945.1052862988704</v>
       </c>
       <c r="AB3" t="n">
-        <v>1165.050888135225</v>
+        <v>1293.134747816654</v>
       </c>
       <c r="AC3" t="n">
-        <v>1053.86006653079</v>
+        <v>1169.719782411049</v>
       </c>
       <c r="AD3" t="n">
-        <v>851493.4387486684</v>
+        <v>945105.2862988703</v>
       </c>
       <c r="AE3" t="n">
-        <v>1165050.888135225</v>
+        <v>1293134.747816654</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181636952365212e-06</v>
+        <v>2.177086365718835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.19367283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>1053860.06653079</v>
+        <v>1169719.782411049</v>
       </c>
     </row>
     <row r="4">
@@ -57636,28 +57636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>774.7999287962379</v>
+        <v>859.1188732259318</v>
       </c>
       <c r="AB4" t="n">
-        <v>1060.115444339444</v>
+        <v>1175.484343997443</v>
       </c>
       <c r="AC4" t="n">
-        <v>958.9395142130577</v>
+        <v>1063.297768008965</v>
       </c>
       <c r="AD4" t="n">
-        <v>774799.9287962378</v>
+        <v>859118.8732259318</v>
       </c>
       <c r="AE4" t="n">
-        <v>1060115.444339444</v>
+        <v>1175484.343997443</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.245892135894326e-06</v>
+        <v>2.295472206401954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.20601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>958939.5142130577</v>
+        <v>1063297.768008965</v>
       </c>
     </row>
     <row r="5">
@@ -57742,28 +57742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>728.1662125178354</v>
+        <v>812.5704082935499</v>
       </c>
       <c r="AB5" t="n">
-        <v>996.309136392971</v>
+        <v>1111.794680703619</v>
       </c>
       <c r="AC5" t="n">
-        <v>901.2227907442805</v>
+        <v>1005.6865567909</v>
       </c>
       <c r="AD5" t="n">
-        <v>728166.2125178354</v>
+        <v>812570.4082935499</v>
       </c>
       <c r="AE5" t="n">
-        <v>996309.136392971</v>
+        <v>1111794.680703619</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279518819314868e-06</v>
+        <v>2.357427101983603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.72762345679012</v>
       </c>
       <c r="AH5" t="n">
-        <v>901222.7907442804</v>
+        <v>1005686.5567909</v>
       </c>
     </row>
     <row r="6">
@@ -57848,28 +57848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>701.0960193914218</v>
+        <v>785.3296229665442</v>
       </c>
       <c r="AB6" t="n">
-        <v>959.2705039047775</v>
+        <v>1074.522636440579</v>
       </c>
       <c r="AC6" t="n">
-        <v>867.7190733567128</v>
+        <v>971.9717041206811</v>
       </c>
       <c r="AD6" t="n">
-        <v>701096.0193914218</v>
+        <v>785329.6229665442</v>
       </c>
       <c r="AE6" t="n">
-        <v>959270.5039047775</v>
+        <v>1074522.636440579</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.29991822341789e-06</v>
+        <v>2.395011627799745e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.44598765432099</v>
       </c>
       <c r="AH6" t="n">
-        <v>867719.0733567128</v>
+        <v>971971.7041206812</v>
       </c>
     </row>
     <row r="7">
@@ -57954,28 +57954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.3644326036351</v>
+        <v>761.5980361787574</v>
       </c>
       <c r="AB7" t="n">
-        <v>926.7998998980097</v>
+        <v>1042.052032433811</v>
       </c>
       <c r="AC7" t="n">
-        <v>838.3474182235719</v>
+        <v>942.6000489875404</v>
       </c>
       <c r="AD7" t="n">
-        <v>677364.4326036351</v>
+        <v>761598.0361787574</v>
       </c>
       <c r="AE7" t="n">
-        <v>926799.8998980097</v>
+        <v>1042052.032433811</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.313027926919255e-06</v>
+        <v>2.419165372056228e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.27237654320988</v>
       </c>
       <c r="AH7" t="n">
-        <v>838347.418223572</v>
+        <v>942600.0489875404</v>
       </c>
     </row>
     <row r="8">
@@ -58060,28 +58060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>660.1485339748668</v>
+        <v>735.1745752840529</v>
       </c>
       <c r="AB8" t="n">
-        <v>903.2443478822852</v>
+        <v>1005.898287516854</v>
       </c>
       <c r="AC8" t="n">
-        <v>817.0399750318031</v>
+        <v>909.8967667433582</v>
       </c>
       <c r="AD8" t="n">
-        <v>660148.5339748668</v>
+        <v>735174.575284053</v>
       </c>
       <c r="AE8" t="n">
-        <v>903244.3478822851</v>
+        <v>1005898.287516854</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.322375204303636e-06</v>
+        <v>2.436387100023854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.15277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>817039.9750318031</v>
+        <v>909896.7667433582</v>
       </c>
     </row>
     <row r="9">
@@ -58166,28 +58166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>658.1103239282182</v>
+        <v>733.1363652374044</v>
       </c>
       <c r="AB9" t="n">
-        <v>900.4555789769795</v>
+        <v>1003.109518611548</v>
       </c>
       <c r="AC9" t="n">
-        <v>814.5173623167584</v>
+        <v>907.3741540283132</v>
       </c>
       <c r="AD9" t="n">
-        <v>658110.3239282182</v>
+        <v>733136.3652374045</v>
       </c>
       <c r="AE9" t="n">
-        <v>900455.5789769795</v>
+        <v>1003109.518611548</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.324138841545973e-06</v>
+        <v>2.439636482659256e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.12962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>814517.3623167584</v>
+        <v>907374.1540283132</v>
       </c>
     </row>
     <row r="10">
@@ -58272,28 +58272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>661.3069573862954</v>
+        <v>736.3329986954817</v>
       </c>
       <c r="AB10" t="n">
-        <v>904.8293538998358</v>
+        <v>1007.483293534405</v>
       </c>
       <c r="AC10" t="n">
-        <v>818.4737102996089</v>
+        <v>911.3305020111638</v>
       </c>
       <c r="AD10" t="n">
-        <v>661306.9573862954</v>
+        <v>736332.9986954817</v>
       </c>
       <c r="AE10" t="n">
-        <v>904829.3538998358</v>
+        <v>1007483.293534405</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.323962477821739e-06</v>
+        <v>2.439311544395715e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.12962962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>818473.7102996089</v>
+        <v>911330.5020111639</v>
       </c>
     </row>
   </sheetData>
@@ -58569,28 +58569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1433.987618934379</v>
+        <v>1560.181213211539</v>
       </c>
       <c r="AB2" t="n">
-        <v>1962.045123294882</v>
+        <v>2134.708766253353</v>
       </c>
       <c r="AC2" t="n">
-        <v>1774.790290475243</v>
+        <v>1930.975157684702</v>
       </c>
       <c r="AD2" t="n">
-        <v>1433987.618934379</v>
+        <v>1560181.213211539</v>
       </c>
       <c r="AE2" t="n">
-        <v>1962045.123294882</v>
+        <v>2134708.766253353</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.74981790296323e-07</v>
+        <v>1.563091113697791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.95756172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>1774790.290475243</v>
+        <v>1930975.157684702</v>
       </c>
     </row>
     <row r="3">
@@ -58675,28 +58675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.701479106828</v>
+        <v>1129.753870169832</v>
       </c>
       <c r="AB3" t="n">
-        <v>1412.987723287788</v>
+        <v>1545.779086389499</v>
       </c>
       <c r="AC3" t="n">
-        <v>1278.134158117926</v>
+        <v>1398.252099899058</v>
       </c>
       <c r="AD3" t="n">
-        <v>1032701.479106828</v>
+        <v>1129753.870169831</v>
       </c>
       <c r="AE3" t="n">
-        <v>1412987.723287788</v>
+        <v>1545779.086389499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084006161314133e-06</v>
+        <v>1.936497898281914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.14274691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>1278134.158117926</v>
+        <v>1398252.099899058</v>
       </c>
     </row>
     <row r="4">
@@ -58781,28 +58781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>918.5573429257926</v>
+        <v>1015.609644480245</v>
       </c>
       <c r="AB4" t="n">
-        <v>1256.810680481007</v>
+        <v>1389.60192111317</v>
       </c>
       <c r="AC4" t="n">
-        <v>1136.862433080768</v>
+        <v>1256.980264080674</v>
       </c>
       <c r="AD4" t="n">
-        <v>918557.3429257926</v>
+        <v>1015609.644480245</v>
       </c>
       <c r="AE4" t="n">
-        <v>1256810.680481007</v>
+        <v>1389601.92111317</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160303169744137e-06</v>
+        <v>2.072796935817628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.81944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1136862.433080768</v>
+        <v>1256980.264080674</v>
       </c>
     </row>
     <row r="5">
@@ -58887,28 +58887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>871.5537122267469</v>
+        <v>958.8923390488477</v>
       </c>
       <c r="AB5" t="n">
-        <v>1192.498239304738</v>
+        <v>1311.998801631013</v>
       </c>
       <c r="AC5" t="n">
-        <v>1078.687881027283</v>
+        <v>1186.783477405231</v>
       </c>
       <c r="AD5" t="n">
-        <v>871553.712226747</v>
+        <v>958892.3390488477</v>
       </c>
       <c r="AE5" t="n">
-        <v>1192498.239304738</v>
+        <v>1311998.801631013</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199527076896951e-06</v>
+        <v>2.14286758345283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.20216049382716</v>
       </c>
       <c r="AH5" t="n">
-        <v>1078687.881027283</v>
+        <v>1186783.477405231</v>
       </c>
     </row>
     <row r="6">
@@ -58993,28 +58993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>832.2682790361138</v>
+        <v>929.2352397359942</v>
       </c>
       <c r="AB6" t="n">
-        <v>1138.746176462321</v>
+        <v>1271.420649972286</v>
       </c>
       <c r="AC6" t="n">
-        <v>1030.065839621053</v>
+        <v>1150.07804758902</v>
       </c>
       <c r="AD6" t="n">
-        <v>832268.2790361138</v>
+        <v>929235.2397359943</v>
       </c>
       <c r="AE6" t="n">
-        <v>1138746.176462321</v>
+        <v>1271420.649972286</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.223865143384268e-06</v>
+        <v>2.186345763082175e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.84336419753086</v>
       </c>
       <c r="AH6" t="n">
-        <v>1030065.839621053</v>
+        <v>1150078.04758902</v>
       </c>
     </row>
     <row r="7">
@@ -59099,28 +59099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>809.2020871552211</v>
+        <v>896.6259653233425</v>
       </c>
       <c r="AB7" t="n">
-        <v>1107.185995122317</v>
+        <v>1226.803202101241</v>
       </c>
       <c r="AC7" t="n">
-        <v>1001.517717693146</v>
+        <v>1109.718826321806</v>
       </c>
       <c r="AD7" t="n">
-        <v>809202.087155221</v>
+        <v>896625.9653233425</v>
       </c>
       <c r="AE7" t="n">
-        <v>1107185.995122317</v>
+        <v>1226803.202101241</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.240279188224551e-06</v>
+        <v>2.215668256320571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1001517.717693146</v>
+        <v>1109718.826321806</v>
       </c>
     </row>
     <row r="8">
@@ -59205,28 +59205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>788.3310897524044</v>
+        <v>875.5843757199336</v>
       </c>
       <c r="AB8" t="n">
-        <v>1078.629375712362</v>
+        <v>1198.013170916439</v>
       </c>
       <c r="AC8" t="n">
-        <v>975.6865019602101</v>
+        <v>1083.676475306219</v>
       </c>
       <c r="AD8" t="n">
-        <v>788331.0897524044</v>
+        <v>875584.3757199337</v>
       </c>
       <c r="AE8" t="n">
-        <v>1078629.375712362</v>
+        <v>1198013.170916439</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.252731222241317e-06</v>
+        <v>2.237912906363491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.43055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>975686.50196021</v>
+        <v>1083676.475306219</v>
       </c>
     </row>
     <row r="9">
@@ -59311,28 +59311,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>771.544116176269</v>
+        <v>858.7974021437981</v>
       </c>
       <c r="AB9" t="n">
-        <v>1055.660697876487</v>
+        <v>1175.044493080564</v>
       </c>
       <c r="AC9" t="n">
-        <v>954.9099225002494</v>
+        <v>1062.899895846259</v>
       </c>
       <c r="AD9" t="n">
-        <v>771544.116176269</v>
+        <v>858797.4021437981</v>
       </c>
       <c r="AE9" t="n">
-        <v>1055660.697876487</v>
+        <v>1175044.493080564</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.261221245434567e-06</v>
+        <v>2.253079713210937e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.31481481481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>954909.9225002495</v>
+        <v>1062899.895846259</v>
       </c>
     </row>
     <row r="10">
@@ -59417,28 +59417,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>757.8709155515141</v>
+        <v>845.1242015190433</v>
       </c>
       <c r="AB10" t="n">
-        <v>1036.952421562659</v>
+        <v>1156.336216766736</v>
       </c>
       <c r="AC10" t="n">
-        <v>937.9871378205826</v>
+        <v>1045.977111166592</v>
       </c>
       <c r="AD10" t="n">
-        <v>757870.9155515141</v>
+        <v>845124.2015190433</v>
       </c>
       <c r="AE10" t="n">
-        <v>1036952.421562659</v>
+        <v>1156336.216766736</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.267334062133707e-06</v>
+        <v>2.263999814141099e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.22993827160494</v>
       </c>
       <c r="AH10" t="n">
-        <v>937987.1378205826</v>
+        <v>1045977.111166592</v>
       </c>
     </row>
     <row r="11">
@@ -59523,28 +59523,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>742.858275149656</v>
+        <v>820.5684785854261</v>
       </c>
       <c r="AB11" t="n">
-        <v>1016.411464653886</v>
+        <v>1122.737993326923</v>
       </c>
       <c r="AC11" t="n">
-        <v>919.4065810097686</v>
+        <v>1015.585455016471</v>
       </c>
       <c r="AD11" t="n">
-        <v>742858.275149656</v>
+        <v>820568.4785854261</v>
       </c>
       <c r="AE11" t="n">
-        <v>1016411.464653886</v>
+        <v>1122737.993326923</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.273729879605955e-06</v>
+        <v>2.275425475299508e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.14506172839506</v>
       </c>
       <c r="AH11" t="n">
-        <v>919406.5810097686</v>
+        <v>1015585.455016471</v>
       </c>
     </row>
     <row r="12">
@@ -59629,28 +59629,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>729.7210062875398</v>
+        <v>807.43120972331</v>
       </c>
       <c r="AB12" t="n">
-        <v>998.4364738213409</v>
+        <v>1104.763002494377</v>
       </c>
       <c r="AC12" t="n">
-        <v>903.1470980742237</v>
+        <v>999.3259720809257</v>
       </c>
       <c r="AD12" t="n">
-        <v>729721.0062875398</v>
+        <v>807431.20972331</v>
       </c>
       <c r="AE12" t="n">
-        <v>998436.4738213408</v>
+        <v>1104763.002494377</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.27831449213031e-06</v>
+        <v>2.283615550997129e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>903147.0980742236</v>
+        <v>999325.9720809257</v>
       </c>
     </row>
     <row r="13">
@@ -59735,28 +59735,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>731.1752841809611</v>
+        <v>808.8854876167311</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000.426280993332</v>
+        <v>1106.752809666369</v>
       </c>
       <c r="AC13" t="n">
-        <v>904.947000842432</v>
+        <v>1001.125874849134</v>
       </c>
       <c r="AD13" t="n">
-        <v>731175.2841809611</v>
+        <v>808885.4876167311</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000426.280993332</v>
+        <v>1106752.809666369</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.277408889656363e-06</v>
+        <v>2.281997758266735e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>904947.000842432</v>
+        <v>1001125.874849134</v>
       </c>
     </row>
     <row r="14">
@@ -59841,28 +59841,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>734.2934819538015</v>
+        <v>812.0036853895716</v>
       </c>
       <c r="AB14" t="n">
-        <v>1004.692736751309</v>
+        <v>1111.019265424346</v>
       </c>
       <c r="AC14" t="n">
-        <v>908.8062720508761</v>
+        <v>1004.985146057578</v>
       </c>
       <c r="AD14" t="n">
-        <v>734293.4819538015</v>
+        <v>812003.6853895716</v>
       </c>
       <c r="AE14" t="n">
-        <v>1004692.736751309</v>
+        <v>1111019.265424346</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.277239089192498e-06</v>
+        <v>2.281694422129786e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>908806.2720508762</v>
+        <v>1004985.146057578</v>
       </c>
     </row>
   </sheetData>
